--- a/uploads/Lion_Bid_Extract.xlsx
+++ b/uploads/Lion_Bid_Extract.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alian\Desktop\Phyton Projects\Material Cost project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B09BC9-E2C9-478B-9FAA-9BFA8010FAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1EEC37-1EFA-476A-8FB4-87B92D626E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="558">
   <si>
     <t>Item Number</t>
   </si>
@@ -1418,6 +1418,282 @@
   </si>
   <si>
     <t>3/4X3/4X1/2 CPVC TEE</t>
+  </si>
+  <si>
+    <t>308749.</t>
+  </si>
+  <si>
+    <t>3X20FT LENGTH M HARD COPPER ( 20.0000 FT Per LTH) 615.2LTH</t>
+  </si>
+  <si>
+    <t>30.7600</t>
+  </si>
+  <si>
+    <t>LTH</t>
+  </si>
+  <si>
+    <t>5096913</t>
+  </si>
+  <si>
+    <t>3/04/25</t>
+  </si>
+  <si>
+    <t>308750.</t>
+  </si>
+  <si>
+    <t>4X20FT LENGTH M HARD COPPER ( 20.0000 FT Per LTH) 1,133.6LTH</t>
+  </si>
+  <si>
+    <t>56.6800</t>
+  </si>
+  <si>
+    <t>308748.</t>
+  </si>
+  <si>
+    <t>21/2X20FT LENGTH M HARD COPPER ( 20.0000 FT Per LTH) 463.6LTH</t>
+  </si>
+  <si>
+    <t>23.1800</t>
+  </si>
+  <si>
+    <t>308747.</t>
+  </si>
+  <si>
+    <t>2X20FT LENGTH M HARD COPPER ( 20.0000 EA Per LTH) 314.0LTH</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>308746.</t>
+  </si>
+  <si>
+    <t>11/2X20FT LENGTH M HARD COPPER ( 20.0000 FT Per LTH) 204.2LTH</t>
+  </si>
+  <si>
+    <t>10.2100</t>
+  </si>
+  <si>
+    <t>308745.</t>
+  </si>
+  <si>
+    <t>11/4X20FT LENGTH M HARD COPPER ( 20.0000 FT Per LTH) 148.4LTH</t>
+  </si>
+  <si>
+    <t>7.4200</t>
+  </si>
+  <si>
+    <t>308744.</t>
+  </si>
+  <si>
+    <t>1X20FT LENGTH M HARD COPPER ( 20.0000 FT Per LTH) 86.2LTH</t>
+  </si>
+  <si>
+    <t>4.3100</t>
+  </si>
+  <si>
+    <t>308743.</t>
+  </si>
+  <si>
+    <t>3/4X20FT LENGTH M HARD COPPER ( 20.0000 FT Per LTH) 56.4LTH</t>
+  </si>
+  <si>
+    <t>2.8200</t>
+  </si>
+  <si>
+    <t>041607L</t>
+  </si>
+  <si>
+    <t>4 CXC W 90 ELL</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>041600L</t>
+  </si>
+  <si>
+    <t>4 CXC W CPLG W/STOP</t>
+  </si>
+  <si>
+    <t>53.2800</t>
+  </si>
+  <si>
+    <t>041611L</t>
+  </si>
+  <si>
+    <t>4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>208.2400</t>
+  </si>
+  <si>
+    <t>041602LI</t>
+  </si>
+  <si>
+    <t>4X2 FTGXC W REDUCER</t>
+  </si>
+  <si>
+    <t>73.7600</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>4 COP TEARDROP HGR CT99 CT69</t>
+  </si>
+  <si>
+    <t>6.2700</t>
+  </si>
+  <si>
+    <t>3 COP TEARDROP HGR CT99 CT69</t>
+  </si>
+  <si>
+    <t>4.9900</t>
+  </si>
+  <si>
+    <t>21/2 COP TEARDROP HGR CT99 (50 CT69</t>
+  </si>
+  <si>
+    <t>3.9200</t>
+  </si>
+  <si>
+    <t>2 COP TEARDROP HGR CT99</t>
+  </si>
+  <si>
+    <t>94ALF20A01A</t>
+  </si>
+  <si>
+    <t>4 CXC BALL VALVE APOLLO</t>
+  </si>
+  <si>
+    <t>347.5500</t>
+  </si>
+  <si>
+    <t>88005705</t>
+  </si>
+  <si>
+    <t>2 CXC BALL VALVE WATTS Q648581</t>
+  </si>
+  <si>
+    <t>55.0400</t>
+  </si>
+  <si>
+    <t>88005701</t>
+  </si>
+  <si>
+    <t>3/4 CXC BALL VALVE WATTS Q648581</t>
+  </si>
+  <si>
+    <t>9.9300</t>
+  </si>
+  <si>
+    <t>041611IIE</t>
+  </si>
+  <si>
+    <t>2X2X3/4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>25.4000</t>
+  </si>
+  <si>
+    <t>041611IHE</t>
+  </si>
+  <si>
+    <t>2X11/2X3/4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>43.7600</t>
+  </si>
+  <si>
+    <t>041611HHE</t>
+  </si>
+  <si>
+    <t>11/2X11/2X3/4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>16.0640</t>
+  </si>
+  <si>
+    <t>041611HGE</t>
+  </si>
+  <si>
+    <t>11/2X11/4X3/4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>32.8240</t>
+  </si>
+  <si>
+    <t>041611GGE</t>
+  </si>
+  <si>
+    <t>11/4X11/4X3/4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>15.1120</t>
+  </si>
+  <si>
+    <t>041611GFE</t>
+  </si>
+  <si>
+    <t>11/4X1X3/4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>19.0240</t>
+  </si>
+  <si>
+    <t>041611FFE</t>
+  </si>
+  <si>
+    <t>1X1X3/4 CXCXC W TEE</t>
+  </si>
+  <si>
+    <t>10.3760</t>
+  </si>
+  <si>
+    <t>041624I</t>
+  </si>
+  <si>
+    <t>2 2-HOLE COPPER STRAP</t>
+  </si>
+  <si>
+    <t>1.2920</t>
+  </si>
+  <si>
+    <t>041624H</t>
+  </si>
+  <si>
+    <t>11/2 2-HOLE COPPER STRAP</t>
+  </si>
+  <si>
+    <t>1.1608</t>
+  </si>
+  <si>
+    <t>041624G</t>
+  </si>
+  <si>
+    <t>11/4 2-HOLE COPPER STRAP</t>
+  </si>
+  <si>
+    <t>.9712</t>
+  </si>
+  <si>
+    <t>041624F</t>
+  </si>
+  <si>
+    <t>1 2-HOLE COPPER STRAP</t>
+  </si>
+  <si>
+    <t>.8136</t>
+  </si>
+  <si>
+    <t>041624E</t>
+  </si>
+  <si>
+    <t>3/4 2H COPPER TUBE STRAP 46,255.21 3,237.87 49,493.08</t>
+  </si>
+  <si>
+    <t>.7904</t>
   </si>
 </sst>
 </file>
@@ -1486,6 +1762,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1514,20 +1804,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1542,10 +1818,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}" name="Table1" displayName="Table1" ref="A1:F178" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:F178" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F178">
-    <sortCondition ref="B1:B178"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}" name="Table1" displayName="Table1" ref="A1:F241" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:F241" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F209">
+    <sortCondition ref="B1:B241"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1836CF75-5BF0-4759-A971-A73360DCB250}" name="Item Number"/>
@@ -1846,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J195" sqref="J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1884,22 +2160,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>554</v>
       </c>
       <c r="D2" t="s">
         <v>462</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1907,7 +2183,7 @@
         <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>413</v>
@@ -1924,13 +2200,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
         <v>462</v>
@@ -1944,13 +2220,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="D5" t="s">
         <v>462</v>
@@ -1964,13 +2240,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D6" t="s">
         <v>462</v>
@@ -1984,13 +2260,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D7" t="s">
         <v>462</v>
@@ -2004,13 +2280,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
         <v>462</v>
@@ -2024,13 +2300,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D9" t="s">
         <v>462</v>
@@ -2044,13 +2320,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D10" t="s">
         <v>462</v>
@@ -2064,13 +2340,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D11" t="s">
         <v>462</v>
@@ -2084,13 +2360,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
         <v>462</v>
@@ -2104,13 +2380,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D13" t="s">
         <v>462</v>
@@ -2124,13 +2400,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
         <v>462</v>
@@ -2144,13 +2420,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
         <v>462</v>
@@ -2164,13 +2440,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D16" t="s">
         <v>462</v>
@@ -2184,13 +2460,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D17" t="s">
         <v>462</v>
@@ -2204,13 +2480,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
         <v>462</v>
@@ -2224,13 +2500,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
         <v>462</v>
@@ -2244,13 +2520,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
         <v>462</v>
@@ -2264,13 +2540,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
         <v>462</v>
@@ -2304,13 +2580,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="D23" t="s">
         <v>462</v>
@@ -2324,13 +2600,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
         <v>462</v>
@@ -2344,33 +2620,33 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>546</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>547</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>548</v>
       </c>
       <c r="D25" t="s">
         <v>462</v>
       </c>
       <c r="E25" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F25" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="D26" t="s">
         <v>462</v>
@@ -2384,13 +2660,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="D27" t="s">
         <v>462</v>
@@ -2404,13 +2680,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D28" t="s">
         <v>462</v>
@@ -2424,13 +2700,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
         <v>462</v>
@@ -2444,13 +2720,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s">
         <v>462</v>
@@ -2464,13 +2740,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D31" t="s">
         <v>462</v>
@@ -2484,13 +2760,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
         <v>462</v>
@@ -2504,13 +2780,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="D33" t="s">
         <v>462</v>
@@ -2524,13 +2800,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="D34" t="s">
         <v>462</v>
@@ -2544,13 +2820,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D35" t="s">
         <v>462</v>
@@ -2564,13 +2840,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D36" t="s">
         <v>462</v>
@@ -2584,13 +2860,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C37" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D37" t="s">
         <v>462</v>
@@ -2604,13 +2880,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D38" t="s">
         <v>462</v>
@@ -2624,10 +2900,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" t="s">
         <v>440</v>
@@ -2644,13 +2920,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
         <v>462</v>
@@ -2664,33 +2940,33 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>528</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>529</v>
       </c>
       <c r="C41" t="s">
-        <v>322</v>
+        <v>530</v>
       </c>
       <c r="D41" t="s">
         <v>462</v>
       </c>
       <c r="E41" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F41" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
         <v>462</v>
@@ -2704,33 +2980,33 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>531</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>532</v>
       </c>
       <c r="C43" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
       <c r="D43" t="s">
         <v>462</v>
       </c>
       <c r="E43" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F43" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="D44" t="s">
         <v>462</v>
@@ -2744,13 +3020,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>443</v>
+        <v>322</v>
       </c>
       <c r="D45" t="s">
         <v>462</v>
@@ -2764,53 +3040,53 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>482</v>
       </c>
       <c r="C46" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="D46" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E46" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F46" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>549</v>
       </c>
       <c r="B47" t="s">
-        <v>289</v>
+        <v>550</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="D47" t="s">
         <v>462</v>
       </c>
       <c r="E47" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F47" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="D48" t="s">
         <v>462</v>
@@ -2824,13 +3100,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="C49" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="D49" t="s">
         <v>462</v>
@@ -2844,13 +3120,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D50" t="s">
         <v>462</v>
@@ -2864,13 +3140,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="D51" t="s">
         <v>462</v>
@@ -2884,13 +3160,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C52" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="D52" t="s">
         <v>462</v>
@@ -2904,13 +3180,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C53" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D53" t="s">
         <v>462</v>
@@ -2924,13 +3200,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="D54" t="s">
         <v>462</v>
@@ -2944,73 +3220,73 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>534</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>535</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="D55" t="s">
         <v>462</v>
       </c>
       <c r="E55" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F55" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>537</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>538</v>
       </c>
       <c r="C56" t="s">
-        <v>368</v>
+        <v>539</v>
       </c>
       <c r="D56" t="s">
         <v>462</v>
       </c>
       <c r="E56" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F56" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>484</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>485</v>
       </c>
       <c r="C57" t="s">
-        <v>363</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E57" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F57" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C58" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="D58" t="s">
         <v>462</v>
@@ -3024,13 +3300,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C59" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="D59" t="s">
         <v>462</v>
@@ -3044,13 +3320,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D60" t="s">
         <v>462</v>
@@ -3064,13 +3340,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="D61" t="s">
         <v>462</v>
@@ -3084,13 +3360,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="C62" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="D62" t="s">
         <v>462</v>
@@ -3104,53 +3380,53 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>540</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>541</v>
       </c>
       <c r="C63" t="s">
-        <v>318</v>
+        <v>542</v>
       </c>
       <c r="D63" t="s">
         <v>462</v>
       </c>
       <c r="E63" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F63" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>488</v>
       </c>
       <c r="C64" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="D64" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E64" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F64" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="C65" t="s">
-        <v>326</v>
+        <v>460</v>
       </c>
       <c r="D65" t="s">
         <v>462</v>
@@ -3164,73 +3440,73 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>543</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>544</v>
       </c>
       <c r="C66" t="s">
-        <v>326</v>
+        <v>545</v>
       </c>
       <c r="D66" t="s">
         <v>462</v>
       </c>
       <c r="E66" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F66" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>512</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="D67" t="s">
         <v>462</v>
       </c>
       <c r="E67" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F67" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>516</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>517</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
+        <v>518</v>
       </c>
       <c r="D68" t="s">
         <v>462</v>
       </c>
       <c r="E68" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F68" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="D69" t="s">
         <v>462</v>
@@ -3244,13 +3520,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D70" t="s">
         <v>462</v>
@@ -3264,13 +3540,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="D71" t="s">
         <v>462</v>
@@ -3284,13 +3560,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="D72" t="s">
         <v>462</v>
@@ -3304,13 +3580,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="D73" t="s">
         <v>462</v>
@@ -3324,13 +3600,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D74" t="s">
         <v>462</v>
@@ -3344,13 +3620,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="D75" t="s">
         <v>462</v>
@@ -3364,13 +3640,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="D76" t="s">
         <v>462</v>
@@ -3384,13 +3660,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
         <v>462</v>
@@ -3404,13 +3680,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="D78" t="s">
         <v>462</v>
@@ -3424,13 +3700,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="D79" t="s">
         <v>462</v>
@@ -3444,13 +3720,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="D80" t="s">
         <v>462</v>
@@ -3464,13 +3740,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D81" t="s">
         <v>462</v>
@@ -3484,13 +3760,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="D82" t="s">
         <v>462</v>
@@ -3504,13 +3780,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D83" t="s">
         <v>462</v>
@@ -3524,53 +3800,53 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>510</v>
       </c>
       <c r="C84" t="s">
-        <v>395</v>
+        <v>511</v>
       </c>
       <c r="D84" t="s">
         <v>462</v>
       </c>
       <c r="E84" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F84" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="C85" t="s">
-        <v>384</v>
+        <v>477</v>
       </c>
       <c r="D85" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E85" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F85" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D86" t="s">
         <v>462</v>
@@ -3584,13 +3860,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="D87" t="s">
         <v>462</v>
@@ -3604,33 +3880,33 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>525</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>526</v>
       </c>
       <c r="C88" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="D88" t="s">
         <v>462</v>
       </c>
       <c r="E88" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D89" t="s">
         <v>462</v>
@@ -3644,33 +3920,33 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>478</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>479</v>
       </c>
       <c r="C90" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="D90" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E90" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F90" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>325</v>
       </c>
       <c r="D91" t="s">
         <v>462</v>
@@ -3684,13 +3960,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="C92" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="D92" t="s">
         <v>462</v>
@@ -3704,33 +3980,33 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="C93" t="s">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="D93" t="s">
         <v>462</v>
       </c>
       <c r="E93" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F93" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C94" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D94" t="s">
         <v>462</v>
@@ -3744,38 +4020,38 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>508</v>
       </c>
       <c r="C95" t="s">
-        <v>410</v>
+        <v>509</v>
       </c>
       <c r="D95" t="s">
         <v>462</v>
       </c>
       <c r="E95" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F95" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>465</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="D96" t="s">
         <v>462</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>463</v>
       </c>
       <c r="F96" t="s">
@@ -3784,13 +4060,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="D97" t="s">
         <v>462</v>
@@ -3804,13 +4080,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="D98" t="s">
         <v>462</v>
@@ -3824,13 +4100,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="D99" t="s">
         <v>462</v>
@@ -3844,13 +4120,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="D100" t="s">
         <v>462</v>
@@ -3864,13 +4140,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
         <v>462</v>
@@ -3884,13 +4160,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>458</v>
+        <v>383</v>
       </c>
       <c r="D102" t="s">
         <v>462</v>
@@ -3904,13 +4180,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="D103" t="s">
         <v>462</v>
@@ -3924,13 +4200,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C104" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D104" t="s">
         <v>462</v>
@@ -3944,13 +4220,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D105" t="s">
         <v>462</v>
@@ -3964,13 +4240,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D106" t="s">
         <v>462</v>
@@ -3984,53 +4260,53 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>555</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>556</v>
       </c>
       <c r="C107" t="s">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="D107" t="s">
         <v>462</v>
       </c>
-      <c r="E107" t="s">
-        <v>463</v>
+      <c r="E107" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="F107" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>519</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="C108" t="s">
-        <v>311</v>
+        <v>521</v>
       </c>
       <c r="D108" t="s">
         <v>462</v>
       </c>
       <c r="E108" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F108" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="C109" t="s">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="D109" t="s">
         <v>462</v>
@@ -4044,13 +4320,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="D110" t="s">
         <v>462</v>
@@ -4064,13 +4340,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="C111" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="D111" t="s">
         <v>462</v>
@@ -4084,13 +4360,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="C112" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="D112" t="s">
         <v>462</v>
@@ -4104,13 +4380,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="C113" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="D113" t="s">
         <v>462</v>
@@ -4124,13 +4400,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="C114" t="s">
-        <v>346</v>
+        <v>436</v>
       </c>
       <c r="D114" t="s">
         <v>462</v>
@@ -4144,13 +4420,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
-        <v>332</v>
+        <v>439</v>
       </c>
       <c r="D115" t="s">
         <v>462</v>
@@ -4164,13 +4440,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="D116" t="s">
         <v>462</v>
@@ -4184,13 +4460,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
         <v>462</v>
@@ -4204,38 +4480,38 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>491</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>492</v>
       </c>
       <c r="D118" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E118" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F118" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="D119" t="s">
         <v>462</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F119" t="s">
@@ -4244,13 +4520,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="D120" t="s">
         <v>462</v>
@@ -4264,13 +4540,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="D121" t="s">
         <v>462</v>
@@ -4284,13 +4560,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="D122" t="s">
         <v>462</v>
@@ -4304,13 +4580,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="D123" t="s">
         <v>462</v>
@@ -4324,18 +4600,18 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C124" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D124" t="s">
         <v>462</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" t="s">
         <v>463</v>
       </c>
       <c r="F124" t="s">
@@ -4344,13 +4620,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="D125" t="s">
         <v>462</v>
@@ -4364,13 +4640,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="C126" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="D126" t="s">
         <v>462</v>
@@ -4384,13 +4660,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C127" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D127" t="s">
         <v>462</v>
@@ -4404,33 +4680,33 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>466</v>
       </c>
       <c r="B128" t="s">
-        <v>161</v>
+        <v>467</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>468</v>
       </c>
       <c r="D128" t="s">
-        <v>462</v>
-      </c>
-      <c r="E128" t="s">
-        <v>463</v>
+        <v>469</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="F128" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C129" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="D129" t="s">
         <v>462</v>
@@ -4444,13 +4720,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D130" t="s">
         <v>462</v>
@@ -4464,13 +4740,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="D131" t="s">
         <v>462</v>
@@ -4484,13 +4760,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="D132" t="s">
         <v>462</v>
@@ -4504,113 +4780,113 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>505</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>506</v>
       </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>507</v>
       </c>
       <c r="D133" t="s">
         <v>462</v>
       </c>
       <c r="E133" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F133" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>513</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>514</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>515</v>
       </c>
       <c r="D134" t="s">
         <v>462</v>
       </c>
       <c r="E134" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F134" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>493</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>494</v>
       </c>
       <c r="C135" t="s">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="D135" t="s">
         <v>462</v>
       </c>
       <c r="E135" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F135" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>496</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>497</v>
       </c>
       <c r="C136" t="s">
-        <v>343</v>
+        <v>498</v>
       </c>
       <c r="D136" t="s">
         <v>462</v>
       </c>
       <c r="E136" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F136" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>499</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>500</v>
       </c>
       <c r="C137" t="s">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="D137" t="s">
         <v>462</v>
       </c>
       <c r="E137" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F137" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C138" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="D138" t="s">
         <v>462</v>
@@ -4624,13 +4900,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C139" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D139" t="s">
         <v>462</v>
@@ -4644,13 +4920,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C140" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D140" t="s">
         <v>462</v>
@@ -4664,13 +4940,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B141" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C141" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D141" t="s">
         <v>462</v>
@@ -4684,13 +4960,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C142" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D142" t="s">
         <v>462</v>
@@ -4704,13 +4980,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C143" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D143" t="s">
         <v>462</v>
@@ -4724,13 +5000,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D144" t="s">
         <v>462</v>
@@ -4744,13 +5020,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D145" t="s">
         <v>462</v>
@@ -4764,13 +5040,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C146" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D146" t="s">
         <v>462</v>
@@ -4784,13 +5060,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B147" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C147" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D147" t="s">
         <v>462</v>
@@ -4804,13 +5080,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C148" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D148" t="s">
         <v>462</v>
@@ -4824,13 +5100,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D149" t="s">
         <v>462</v>
@@ -4844,13 +5120,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C150" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="D150" t="s">
         <v>462</v>
@@ -4864,13 +5140,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C151" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D151" t="s">
         <v>462</v>
@@ -4884,13 +5160,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="D152" t="s">
         <v>462</v>
@@ -4904,58 +5180,58 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>111</v>
+        <v>502</v>
       </c>
       <c r="B153" t="s">
-        <v>267</v>
+        <v>503</v>
       </c>
       <c r="C153" t="s">
-        <v>420</v>
+        <v>504</v>
       </c>
       <c r="D153" t="s">
         <v>462</v>
       </c>
       <c r="E153" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F153" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>472</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>473</v>
       </c>
       <c r="C154" t="s">
-        <v>335</v>
+        <v>474</v>
       </c>
       <c r="D154" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E154" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F154" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D155" t="s">
         <v>462</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F155" t="s">
@@ -4964,13 +5240,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="C156" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="D156" t="s">
         <v>462</v>
@@ -4984,13 +5260,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="C157" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="D157" t="s">
         <v>462</v>
@@ -5004,13 +5280,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C158" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="D158" t="s">
         <v>462</v>
@@ -5024,13 +5300,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="D159" t="s">
         <v>462</v>
@@ -5044,13 +5320,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D160" t="s">
         <v>462</v>
@@ -5064,13 +5340,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="D161" t="s">
         <v>462</v>
@@ -5084,13 +5360,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D162" t="s">
         <v>462</v>
@@ -5104,13 +5380,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="C163" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="D163" t="s">
         <v>462</v>
@@ -5124,13 +5400,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B164" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="C164" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="D164" t="s">
         <v>462</v>
@@ -5144,13 +5420,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B165" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C165" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D165" t="s">
         <v>462</v>
@@ -5164,13 +5440,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C166" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D166" t="s">
         <v>462</v>
@@ -5184,13 +5460,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D167" t="s">
         <v>462</v>
@@ -5204,13 +5480,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="D168" t="s">
         <v>462</v>
@@ -5224,13 +5500,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="D169" t="s">
         <v>462</v>
@@ -5244,13 +5520,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B170" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="C170" t="s">
-        <v>409</v>
+        <v>337</v>
       </c>
       <c r="D170" t="s">
         <v>462</v>
@@ -5264,13 +5540,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="C171" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="D171" t="s">
         <v>462</v>
@@ -5284,13 +5560,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="D172" t="s">
         <v>462</v>
@@ -5304,13 +5580,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C173" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="D173" t="s">
         <v>462</v>
@@ -5324,13 +5600,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B174" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D174" t="s">
         <v>462</v>
@@ -5344,13 +5620,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B175" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C175" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="D175" t="s">
         <v>462</v>
@@ -5364,13 +5640,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="D176" t="s">
         <v>462</v>
@@ -5384,13 +5660,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C177" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="D177" t="s">
         <v>462</v>
@@ -5404,21 +5680,641 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>331</v>
+      </c>
+      <c r="D178" t="s">
+        <v>462</v>
+      </c>
+      <c r="E178" t="s">
+        <v>463</v>
+      </c>
+      <c r="F178" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179" t="s">
+        <v>331</v>
+      </c>
+      <c r="D179" t="s">
+        <v>462</v>
+      </c>
+      <c r="E179" t="s">
+        <v>463</v>
+      </c>
+      <c r="F179" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>176</v>
+      </c>
+      <c r="C180" t="s">
+        <v>331</v>
+      </c>
+      <c r="D180" t="s">
+        <v>462</v>
+      </c>
+      <c r="E180" t="s">
+        <v>463</v>
+      </c>
+      <c r="F180" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" t="s">
+        <v>338</v>
+      </c>
+      <c r="D181" t="s">
+        <v>462</v>
+      </c>
+      <c r="E181" t="s">
+        <v>463</v>
+      </c>
+      <c r="F181" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>37</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" t="s">
+        <v>341</v>
+      </c>
+      <c r="D182" t="s">
+        <v>462</v>
+      </c>
+      <c r="E182" t="s">
+        <v>463</v>
+      </c>
+      <c r="F182" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" t="s">
+        <v>345</v>
+      </c>
+      <c r="D183" t="s">
+        <v>462</v>
+      </c>
+      <c r="E183" t="s">
+        <v>463</v>
+      </c>
+      <c r="F183" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>111</v>
+      </c>
+      <c r="B184" t="s">
+        <v>267</v>
+      </c>
+      <c r="C184" t="s">
+        <v>420</v>
+      </c>
+      <c r="D184" t="s">
+        <v>462</v>
+      </c>
+      <c r="E184" t="s">
+        <v>463</v>
+      </c>
+      <c r="F184" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" t="s">
+        <v>180</v>
+      </c>
+      <c r="C185" t="s">
+        <v>335</v>
+      </c>
+      <c r="D185" t="s">
+        <v>462</v>
+      </c>
+      <c r="E185" t="s">
+        <v>463</v>
+      </c>
+      <c r="F185" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" t="s">
+        <v>175</v>
+      </c>
+      <c r="C186" t="s">
+        <v>330</v>
+      </c>
+      <c r="D186" t="s">
+        <v>462</v>
+      </c>
+      <c r="E186" t="s">
+        <v>463</v>
+      </c>
+      <c r="F186" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>157</v>
+      </c>
+      <c r="C187" t="s">
+        <v>312</v>
+      </c>
+      <c r="D187" t="s">
+        <v>462</v>
+      </c>
+      <c r="E187" t="s">
+        <v>463</v>
+      </c>
+      <c r="F187" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" t="s">
+        <v>169</v>
+      </c>
+      <c r="C188" t="s">
+        <v>324</v>
+      </c>
+      <c r="D188" t="s">
+        <v>462</v>
+      </c>
+      <c r="E188" t="s">
+        <v>463</v>
+      </c>
+      <c r="F188" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>107</v>
+      </c>
+      <c r="B189" t="s">
+        <v>258</v>
+      </c>
+      <c r="C189" t="s">
+        <v>412</v>
+      </c>
+      <c r="D189" t="s">
+        <v>462</v>
+      </c>
+      <c r="E189" t="s">
+        <v>463</v>
+      </c>
+      <c r="F189" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>90</v>
+      </c>
+      <c r="B190" t="s">
+        <v>239</v>
+      </c>
+      <c r="C190" t="s">
+        <v>393</v>
+      </c>
+      <c r="D190" t="s">
+        <v>462</v>
+      </c>
+      <c r="E190" t="s">
+        <v>463</v>
+      </c>
+      <c r="F190" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" t="s">
+        <v>327</v>
+      </c>
+      <c r="D191" t="s">
+        <v>462</v>
+      </c>
+      <c r="E191" t="s">
+        <v>463</v>
+      </c>
+      <c r="F191" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>172</v>
+      </c>
+      <c r="C192" t="s">
+        <v>327</v>
+      </c>
+      <c r="D192" t="s">
+        <v>462</v>
+      </c>
+      <c r="E192" t="s">
+        <v>463</v>
+      </c>
+      <c r="F192" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" t="s">
+        <v>172</v>
+      </c>
+      <c r="C193" t="s">
+        <v>327</v>
+      </c>
+      <c r="D193" t="s">
+        <v>462</v>
+      </c>
+      <c r="E193" t="s">
+        <v>463</v>
+      </c>
+      <c r="F193" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>44</v>
+      </c>
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>348</v>
+      </c>
+      <c r="D194" t="s">
+        <v>462</v>
+      </c>
+      <c r="E194" t="s">
+        <v>463</v>
+      </c>
+      <c r="F194" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>93</v>
+      </c>
+      <c r="B195" t="s">
+        <v>243</v>
+      </c>
+      <c r="C195" t="s">
+        <v>397</v>
+      </c>
+      <c r="D195" t="s">
+        <v>462</v>
+      </c>
+      <c r="E195" t="s">
+        <v>463</v>
+      </c>
+      <c r="F195" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" t="s">
+        <v>192</v>
+      </c>
+      <c r="C196" t="s">
+        <v>347</v>
+      </c>
+      <c r="D196" t="s">
+        <v>462</v>
+      </c>
+      <c r="E196" t="s">
+        <v>463</v>
+      </c>
+      <c r="F196" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>173</v>
+      </c>
+      <c r="C197" t="s">
+        <v>328</v>
+      </c>
+      <c r="D197" t="s">
+        <v>462</v>
+      </c>
+      <c r="E197" t="s">
+        <v>463</v>
+      </c>
+      <c r="F197" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>25</v>
+      </c>
+      <c r="B198" t="s">
+        <v>174</v>
+      </c>
+      <c r="C198" t="s">
+        <v>329</v>
+      </c>
+      <c r="D198" t="s">
+        <v>462</v>
+      </c>
+      <c r="E198" t="s">
+        <v>463</v>
+      </c>
+      <c r="F198" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>100</v>
+      </c>
+      <c r="B199" t="s">
+        <v>251</v>
+      </c>
+      <c r="C199" t="s">
+        <v>405</v>
+      </c>
+      <c r="D199" t="s">
+        <v>462</v>
+      </c>
+      <c r="E199" t="s">
+        <v>463</v>
+      </c>
+      <c r="F199" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>109</v>
+      </c>
+      <c r="B200" t="s">
+        <v>261</v>
+      </c>
+      <c r="C200" t="s">
+        <v>414</v>
+      </c>
+      <c r="D200" t="s">
+        <v>462</v>
+      </c>
+      <c r="E200" t="s">
+        <v>463</v>
+      </c>
+      <c r="F200" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>104</v>
+      </c>
+      <c r="B201" t="s">
+        <v>255</v>
+      </c>
+      <c r="C201" t="s">
+        <v>409</v>
+      </c>
+      <c r="D201" t="s">
+        <v>462</v>
+      </c>
+      <c r="E201" t="s">
+        <v>463</v>
+      </c>
+      <c r="F201" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>88</v>
+      </c>
+      <c r="B202" t="s">
+        <v>237</v>
+      </c>
+      <c r="C202" t="s">
+        <v>391</v>
+      </c>
+      <c r="D202" t="s">
+        <v>462</v>
+      </c>
+      <c r="E202" t="s">
+        <v>463</v>
+      </c>
+      <c r="F202" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>87</v>
+      </c>
+      <c r="B203" t="s">
+        <v>236</v>
+      </c>
+      <c r="C203" t="s">
+        <v>390</v>
+      </c>
+      <c r="D203" t="s">
+        <v>462</v>
+      </c>
+      <c r="E203" t="s">
+        <v>463</v>
+      </c>
+      <c r="F203" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>76</v>
+      </c>
+      <c r="B204" t="s">
+        <v>225</v>
+      </c>
+      <c r="C204" t="s">
+        <v>379</v>
+      </c>
+      <c r="D204" t="s">
+        <v>462</v>
+      </c>
+      <c r="E204" t="s">
+        <v>463</v>
+      </c>
+      <c r="F204" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>75</v>
+      </c>
+      <c r="B205" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" t="s">
+        <v>378</v>
+      </c>
+      <c r="D205" t="s">
+        <v>462</v>
+      </c>
+      <c r="E205" t="s">
+        <v>463</v>
+      </c>
+      <c r="F205" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>74</v>
+      </c>
+      <c r="B206" t="s">
+        <v>223</v>
+      </c>
+      <c r="C206" t="s">
+        <v>377</v>
+      </c>
+      <c r="D206" t="s">
+        <v>462</v>
+      </c>
+      <c r="E206" t="s">
+        <v>463</v>
+      </c>
+      <c r="F206" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>73</v>
+      </c>
+      <c r="B207" t="s">
+        <v>222</v>
+      </c>
+      <c r="C207" t="s">
+        <v>376</v>
+      </c>
+      <c r="D207" t="s">
+        <v>462</v>
+      </c>
+      <c r="E207" t="s">
+        <v>463</v>
+      </c>
+      <c r="F207" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>73</v>
+      </c>
+      <c r="B208" t="s">
+        <v>222</v>
+      </c>
+      <c r="C208" t="s">
+        <v>376</v>
+      </c>
+      <c r="D208" t="s">
+        <v>462</v>
+      </c>
+      <c r="E208" t="s">
+        <v>463</v>
+      </c>
+      <c r="F208" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>89</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B209" t="s">
         <v>238</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C209" t="s">
         <v>392</v>
       </c>
-      <c r="D178" t="s">
-        <v>462</v>
-      </c>
-      <c r="E178" t="s">
-        <v>463</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="D209" t="s">
+        <v>462</v>
+      </c>
+      <c r="E209" t="s">
+        <v>463</v>
+      </c>
+      <c r="F209" t="s">
         <v>464</v>
       </c>
     </row>

--- a/uploads/Lion_Bid_Extract.xlsx
+++ b/uploads/Lion_Bid_Extract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AE422C-8E08-4290-AEFF-89F6B0E9721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9810F1D7-F056-474D-9564-C09BCC30457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="992">
   <si>
     <t>Item Number</t>
   </si>
@@ -1696,9 +1696,6 @@
     <t>3954101</t>
   </si>
   <si>
-    <t>11/03/2025</t>
-  </si>
-  <si>
     <t>17.8100</t>
   </si>
   <si>
@@ -1840,9 +1837,6 @@
     <t>3934264</t>
   </si>
   <si>
-    <t>08/06/2025</t>
-  </si>
-  <si>
     <t>011911LI</t>
   </si>
   <si>
@@ -1891,9 +1885,6 @@
     <t>3935220</t>
   </si>
   <si>
-    <t>08/12/2025</t>
-  </si>
-  <si>
     <t>060604H</t>
   </si>
   <si>
@@ -1945,9 +1936,6 @@
     <t>3936364</t>
   </si>
   <si>
-    <t>08/15/2025</t>
-  </si>
-  <si>
     <t>88005494</t>
   </si>
   <si>
@@ -2215,9 +2203,6 @@
     <t>3936823</t>
   </si>
   <si>
-    <t>08/18/2025</t>
-  </si>
-  <si>
     <t>1X10 1X10 CPVC PIPE  EA 225 43</t>
   </si>
   <si>
@@ -2302,9 +2287,6 @@
     <t>3937078</t>
   </si>
   <si>
-    <t>08/20/2025</t>
-  </si>
-  <si>
     <t>78177</t>
   </si>
   <si>
@@ -2323,24 +2305,15 @@
     <t>8.1057</t>
   </si>
   <si>
-    <t>08/19/2025</t>
-  </si>
-  <si>
     <t>3937729</t>
   </si>
   <si>
-    <t>08/21/2025</t>
-  </si>
-  <si>
     <t>0.3240</t>
   </si>
   <si>
     <t>3940053</t>
   </si>
   <si>
-    <t>09/02/2025</t>
-  </si>
-  <si>
     <t>3940081</t>
   </si>
   <si>
@@ -2359,9 +2332,6 @@
     <t>3942973</t>
   </si>
   <si>
-    <t>09/15/2025</t>
-  </si>
-  <si>
     <t>1405</t>
   </si>
   <si>
@@ -2476,9 +2446,6 @@
     <t>3943216</t>
   </si>
   <si>
-    <t>09/16/2025</t>
-  </si>
-  <si>
     <t>107BC</t>
   </si>
   <si>
@@ -2500,9 +2467,6 @@
     <t>3943644</t>
   </si>
   <si>
-    <t>09/17/2025</t>
-  </si>
-  <si>
     <t>011917KP</t>
   </si>
   <si>
@@ -2602,9 +2566,6 @@
     <t>308757.</t>
   </si>
   <si>
-    <t>11/2X10FT M COPPER TUBE *PICK UNITS 10 EA /LEN*</t>
-  </si>
-  <si>
     <t>129.8000</t>
   </si>
   <si>
@@ -2614,9 +2575,6 @@
     <t>3944060</t>
   </si>
   <si>
-    <t>10/08/2025</t>
-  </si>
-  <si>
     <t>049607H</t>
   </si>
   <si>
@@ -2656,9 +2614,6 @@
     <t>3945288</t>
   </si>
   <si>
-    <t>09/25/2025</t>
-  </si>
-  <si>
     <t>060606O</t>
   </si>
   <si>
@@ -2689,9 +2644,6 @@
     <t>3946756</t>
   </si>
   <si>
-    <t>10/01/2025</t>
-  </si>
-  <si>
     <t>7.9745</t>
   </si>
   <si>
@@ -2749,9 +2701,6 @@
     <t>3947033</t>
   </si>
   <si>
-    <t>10/02/2025</t>
-  </si>
-  <si>
     <t>060608K</t>
   </si>
   <si>
@@ -2788,9 +2737,6 @@
     <t>3948575</t>
   </si>
   <si>
-    <t>10/09/2025</t>
-  </si>
-  <si>
     <t>0.6400</t>
   </si>
   <si>
@@ -2839,9 +2785,6 @@
     <t>3949977</t>
   </si>
   <si>
-    <t>10/21/2025</t>
-  </si>
-  <si>
     <t>51.96-51</t>
   </si>
   <si>
@@ -2881,9 +2824,6 @@
     <t>3952444</t>
   </si>
   <si>
-    <t>10/28/2025</t>
-  </si>
-  <si>
     <t>25016.</t>
   </si>
   <si>
@@ -2965,9 +2905,6 @@
     <t>3953256</t>
   </si>
   <si>
-    <t>10/30/2025</t>
-  </si>
-  <si>
     <t>308772.</t>
   </si>
   <si>
@@ -2983,13 +2920,82 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>3/4X10FT LENGTH L HARD COPPER</t>
-  </si>
-  <si>
     <t xml:space="preserve">3/4 2H COPPER TUBE STRAP </t>
   </si>
   <si>
     <t xml:space="preserve">1 GAL CLEAR REG PVC CEMENT REF # 10974 </t>
+  </si>
+  <si>
+    <t>11/03/25</t>
+  </si>
+  <si>
+    <t>1/2 SLIP CPVC CAP  EA 1000 500</t>
+  </si>
+  <si>
+    <t>08/06/25</t>
+  </si>
+  <si>
+    <t>08/12/25</t>
+  </si>
+  <si>
+    <t>08/15/25</t>
+  </si>
+  <si>
+    <t>08/18/25</t>
+  </si>
+  <si>
+    <t>08/20/25</t>
+  </si>
+  <si>
+    <t>08/19/25</t>
+  </si>
+  <si>
+    <t>08/21/25</t>
+  </si>
+  <si>
+    <t>09/02/25</t>
+  </si>
+  <si>
+    <t>09/15/25</t>
+  </si>
+  <si>
+    <t>09/16/25</t>
+  </si>
+  <si>
+    <t>09/17/25</t>
+  </si>
+  <si>
+    <t>11/2X10FT M COPPER TUBE</t>
+  </si>
+  <si>
+    <t>10/08/25</t>
+  </si>
+  <si>
+    <t>09/25/25</t>
+  </si>
+  <si>
+    <t>10/01/25</t>
+  </si>
+  <si>
+    <t>10/02/25</t>
+  </si>
+  <si>
+    <t>6X6X3 HXHXH PVCDWV WYE  EA 7 4</t>
+  </si>
+  <si>
+    <t>10/09/25</t>
+  </si>
+  <si>
+    <t>10/21/25</t>
+  </si>
+  <si>
+    <t>10/28/25</t>
+  </si>
+  <si>
+    <t>10/30/25</t>
+  </si>
+  <si>
+    <t>3/4X10FT LENGTH L HARD COPPER *PICK UNITS 10 EA /LTH*</t>
   </si>
 </sst>
 </file>
@@ -3124,10 +3130,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}" name="Table1" displayName="Table1" ref="A1:F1222" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:F1222" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1222">
-    <sortCondition ref="B1:B1222"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}" name="Table1" displayName="Table1" ref="A1:F968" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:F968" xr:uid="{E7379763-35FA-4EA5-8CDD-54F3B6D0189F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F968">
+    <sortCondition ref="B1:B968"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1836CF75-5BF0-4759-A971-A73360DCB250}" name="Item Number"/>
@@ -3428,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1222"/>
+  <dimension ref="A1:F968"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F193" sqref="F192:F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3466,22 +3472,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="C2" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="D2" t="s">
         <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>952</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>953</v>
+        <v>933</v>
+      </c>
+      <c r="F2" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3506,42 +3512,42 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D4" t="s">
         <v>461</v>
       </c>
       <c r="E4" t="s">
-        <v>640</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F4" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D5" t="s">
         <v>461</v>
       </c>
       <c r="E5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>731</v>
+        <v>750</v>
+      </c>
+      <c r="F5" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3549,7 +3555,7 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="C6" t="s">
         <v>412</v>
@@ -3558,10 +3564,10 @@
         <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>908</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F6" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3589,7 +3595,7 @@
         <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="C8" t="s">
         <v>412</v>
@@ -3606,102 +3612,102 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" t="s">
         <v>637</v>
       </c>
-      <c r="B9" t="s">
-        <v>638</v>
-      </c>
-      <c r="C9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E9" t="s">
-        <v>640</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>641</v>
+      <c r="F9" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B10" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C10" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D10" t="s">
         <v>461</v>
       </c>
       <c r="E10" t="s">
-        <v>640</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F10" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D11" t="s">
         <v>461</v>
       </c>
       <c r="E11" t="s">
-        <v>640</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F11" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B12" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C12" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D12" t="s">
         <v>461</v>
       </c>
       <c r="E12" t="s">
-        <v>640</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F12" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B13" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C13" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D13" t="s">
         <v>461</v>
       </c>
       <c r="E13" t="s">
-        <v>640</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F13" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3786,22 +3792,22 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B18" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C18" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D18" t="s">
         <v>461</v>
       </c>
       <c r="E18" t="s">
-        <v>627</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
+      </c>
+      <c r="F18" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -3832,7 +3838,7 @@
         <v>305</v>
       </c>
       <c r="C20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D20" t="s">
         <v>461</v>
@@ -3840,8 +3846,8 @@
       <c r="E20" t="s">
         <v>557</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>558</v>
+      <c r="F20" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -3906,53 +3912,53 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B24" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C24" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D24" t="s">
         <v>461</v>
       </c>
       <c r="E24" t="s">
-        <v>640</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F24" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="B25" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="C25" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="D25" t="s">
         <v>461</v>
       </c>
       <c r="E25" t="s">
-        <v>888</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F25" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>578</v>
+      </c>
+      <c r="B26" t="s">
         <v>579</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>580</v>
-      </c>
-      <c r="C26" t="s">
-        <v>581</v>
       </c>
       <c r="D26" t="s">
         <v>461</v>
@@ -3960,208 +3966,208 @@
       <c r="E26" t="s">
         <v>557</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>558</v>
+      <c r="F26" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B27" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C27" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D27" t="s">
         <v>461</v>
       </c>
       <c r="E27" t="s">
-        <v>640</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F27" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B28" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C28" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D28" t="s">
         <v>461</v>
       </c>
       <c r="E28" t="s">
-        <v>640</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F28" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B29" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C29" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="D29" t="s">
         <v>461</v>
       </c>
       <c r="E29" t="s">
-        <v>888</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F29" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D30" t="s">
         <v>461</v>
       </c>
       <c r="E30" t="s">
-        <v>640</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F30" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B31" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C31" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D31" t="s">
         <v>461</v>
       </c>
       <c r="E31" t="s">
-        <v>640</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F31" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B32" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C32" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="D32" t="s">
         <v>461</v>
       </c>
       <c r="E32" t="s">
-        <v>888</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F32" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="B33" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="C33" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="D33" t="s">
         <v>461</v>
       </c>
       <c r="E33" t="s">
-        <v>888</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F33" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B34" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C34" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D34" t="s">
         <v>461</v>
       </c>
       <c r="E34" t="s">
-        <v>640</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F34" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B35" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C35" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D35" t="s">
         <v>461</v>
       </c>
       <c r="E35" t="s">
-        <v>640</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F35" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B36" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C36" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="D36" t="s">
         <v>461</v>
       </c>
       <c r="E36" t="s">
-        <v>888</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F36" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -4172,16 +4178,16 @@
         <v>295</v>
       </c>
       <c r="C37" t="s">
-        <v>589</v>
+        <v>446</v>
       </c>
       <c r="D37" t="s">
         <v>461</v>
       </c>
       <c r="E37" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -4189,30 +4195,30 @@
         <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>969</v>
       </c>
       <c r="C38" t="s">
-        <v>446</v>
+        <v>588</v>
       </c>
       <c r="D38" t="s">
-        <v>461</v>
+        <v>728</v>
       </c>
       <c r="E38" t="s">
-        <v>462</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>463</v>
+        <v>557</v>
+      </c>
+      <c r="F38" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>581</v>
+      </c>
+      <c r="B39" t="s">
         <v>582</v>
       </c>
-      <c r="B39" t="s">
-        <v>583</v>
-      </c>
       <c r="C39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D39" t="s">
         <v>461</v>
@@ -4220,8 +4226,8 @@
       <c r="E39" t="s">
         <v>557</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>558</v>
+      <c r="F39" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -4232,7 +4238,7 @@
         <v>300</v>
       </c>
       <c r="C40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D40" t="s">
         <v>461</v>
@@ -4240,8 +4246,8 @@
       <c r="E40" t="s">
         <v>557</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>558</v>
+      <c r="F40" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4278,10 +4284,10 @@
         <v>461</v>
       </c>
       <c r="E42" t="s">
-        <v>888</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F42" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -4332,7 +4338,7 @@
         <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D45" t="s">
         <v>461</v>
@@ -4340,8 +4346,8 @@
       <c r="E45" t="s">
         <v>557</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>558</v>
+      <c r="F45" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -4372,16 +4378,16 @@
         <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D47" t="s">
         <v>461</v>
       </c>
       <c r="E47" t="s">
-        <v>768</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
+      </c>
+      <c r="F47" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -4412,7 +4418,7 @@
         <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D49" t="s">
         <v>461</v>
@@ -4420,8 +4426,8 @@
       <c r="E49" t="s">
         <v>557</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>558</v>
+      <c r="F49" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -4446,22 +4452,22 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="B51" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="C51" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="D51" t="s">
         <v>461</v>
       </c>
       <c r="E51" t="s">
-        <v>938</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>939</v>
+        <v>920</v>
+      </c>
+      <c r="F51" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -4469,7 +4475,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C52" t="s">
         <v>418</v>
@@ -4478,10 +4484,10 @@
         <v>461</v>
       </c>
       <c r="E52" t="s">
-        <v>730</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F52" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -4489,7 +4495,7 @@
         <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C53" t="s">
         <v>418</v>
@@ -4498,10 +4504,10 @@
         <v>461</v>
       </c>
       <c r="E53" t="s">
-        <v>768</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
+      </c>
+      <c r="F53" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -4509,7 +4515,7 @@
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C54" t="s">
         <v>418</v>
@@ -4518,10 +4524,10 @@
         <v>461</v>
       </c>
       <c r="E54" t="s">
-        <v>856</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>826</v>
+        <v>844</v>
+      </c>
+      <c r="F54" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -4546,22 +4552,22 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="B56" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="C56" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="D56" t="s">
         <v>468</v>
       </c>
       <c r="E56" t="s">
-        <v>980</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>981</v>
+        <v>960</v>
+      </c>
+      <c r="F56" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -4686,62 +4692,62 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="B63" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="C63" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="D63" t="s">
         <v>461</v>
       </c>
       <c r="E63" t="s">
-        <v>863</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>864</v>
+        <v>850</v>
+      </c>
+      <c r="F63" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B64" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C64" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="D64" t="s">
         <v>461</v>
       </c>
       <c r="E64" t="s">
-        <v>863</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>864</v>
+        <v>850</v>
+      </c>
+      <c r="F64" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="B65" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="C65" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D65" t="s">
         <v>461</v>
       </c>
       <c r="E65" t="s">
-        <v>863</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>864</v>
+        <v>850</v>
+      </c>
+      <c r="F65" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -4752,16 +4758,16 @@
         <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D66" t="s">
         <v>461</v>
       </c>
       <c r="E66" t="s">
-        <v>730</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F66" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -4772,7 +4778,7 @@
         <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D67" t="s">
         <v>461</v>
@@ -4780,8 +4786,8 @@
       <c r="E67" t="s">
         <v>557</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>558</v>
+      <c r="F67" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -4846,42 +4852,42 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B71" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C71" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D71" t="s">
         <v>461</v>
       </c>
       <c r="E71" t="s">
-        <v>627</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
+      </c>
+      <c r="F71" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B72" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C72" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D72" t="s">
         <v>461</v>
       </c>
       <c r="E72" t="s">
-        <v>640</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F72" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -4926,22 +4932,22 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>621</v>
+      </c>
+      <c r="B75" t="s">
+        <v>622</v>
+      </c>
+      <c r="C75" t="s">
+        <v>623</v>
+      </c>
+      <c r="D75" t="s">
+        <v>461</v>
+      </c>
+      <c r="E75" t="s">
         <v>624</v>
       </c>
-      <c r="B75" t="s">
-        <v>625</v>
-      </c>
-      <c r="C75" t="s">
-        <v>626</v>
-      </c>
-      <c r="D75" t="s">
-        <v>461</v>
-      </c>
-      <c r="E75" t="s">
-        <v>627</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>623</v>
+      <c r="F75" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -5126,42 +5132,42 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B85" t="s">
-        <v>860</v>
+        <v>981</v>
       </c>
       <c r="C85" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="D85" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="E85" t="s">
-        <v>863</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>864</v>
+        <v>850</v>
+      </c>
+      <c r="F85" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B86" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C86" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D86" t="s">
         <v>461</v>
       </c>
       <c r="E86" t="s">
-        <v>640</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F86" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5289,19 +5295,19 @@
         <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C93" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D93" t="s">
         <v>461</v>
       </c>
       <c r="E93" t="s">
-        <v>730</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F93" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -5309,7 +5315,7 @@
         <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C94" t="s">
         <v>415</v>
@@ -5318,10 +5324,10 @@
         <v>461</v>
       </c>
       <c r="E94" t="s">
-        <v>856</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>826</v>
+        <v>844</v>
+      </c>
+      <c r="F94" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -5329,19 +5335,19 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C95" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="D95" t="s">
         <v>461</v>
       </c>
       <c r="E95" t="s">
-        <v>916</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="F95" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -5366,242 +5372,242 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B97" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C97" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D97" t="s">
         <v>461</v>
       </c>
       <c r="E97" t="s">
-        <v>778</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F97" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="B98" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="C98" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D98" t="s">
         <v>461</v>
       </c>
       <c r="E98" t="s">
-        <v>778</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F98" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B99" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C99" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D99" t="s">
         <v>461</v>
       </c>
       <c r="E99" t="s">
-        <v>778</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F99" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B100" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="C100" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D100" t="s">
         <v>461</v>
       </c>
       <c r="E100" t="s">
-        <v>778</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F100" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B101" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C101" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D101" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E101" t="s">
-        <v>778</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F101" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B102" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C102" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D102" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E102" t="s">
-        <v>952</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>953</v>
+        <v>933</v>
+      </c>
+      <c r="F102" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
       <c r="B103" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="C103" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D103" t="s">
         <v>461</v>
       </c>
       <c r="E103" t="s">
-        <v>952</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>953</v>
+        <v>933</v>
+      </c>
+      <c r="F103" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B104" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C104" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D104" t="s">
         <v>461</v>
       </c>
       <c r="E104" t="s">
-        <v>759</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>767</v>
+        <v>754</v>
+      </c>
+      <c r="F104" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B105" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C105" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D105" t="s">
         <v>461</v>
       </c>
       <c r="E105" t="s">
-        <v>759</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
+      </c>
+      <c r="F105" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B106" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C106" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D106" t="s">
         <v>461</v>
       </c>
       <c r="E106" t="s">
-        <v>759</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>767</v>
+        <v>754</v>
+      </c>
+      <c r="F106" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B107" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C107" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D107" t="s">
         <v>461</v>
       </c>
       <c r="E107" t="s">
-        <v>759</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
+      </c>
+      <c r="F107" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B108" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C108" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D108" t="s">
         <v>461</v>
       </c>
       <c r="E108" t="s">
-        <v>640</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F108" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -5629,19 +5635,19 @@
         <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="C110" t="s">
         <v>458</v>
       </c>
       <c r="D110" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E110" t="s">
-        <v>916</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="F110" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -5678,10 +5684,10 @@
         <v>461</v>
       </c>
       <c r="E112" t="s">
-        <v>916</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="F112" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -5718,10 +5724,10 @@
         <v>461</v>
       </c>
       <c r="E114" t="s">
-        <v>916</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="F114" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -5769,19 +5775,19 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="C117" t="s">
         <v>433</v>
       </c>
       <c r="D117" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E117" t="s">
-        <v>856</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>826</v>
+        <v>844</v>
+      </c>
+      <c r="F117" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -5798,10 +5804,10 @@
         <v>461</v>
       </c>
       <c r="E118" t="s">
-        <v>856</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>826</v>
+        <v>844</v>
+      </c>
+      <c r="F118" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -5846,22 +5852,22 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B121" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C121" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D121" t="s">
         <v>461</v>
       </c>
       <c r="E121" t="s">
-        <v>640</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F121" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -5926,122 +5932,122 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B125" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C125" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D125" t="s">
         <v>461</v>
       </c>
       <c r="E125" t="s">
-        <v>778</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F125" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B126" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C126" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D126" t="s">
         <v>461</v>
       </c>
       <c r="E126" t="s">
-        <v>817</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>818</v>
+        <v>807</v>
+      </c>
+      <c r="F126" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B127" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C127" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D127" t="s">
         <v>461</v>
       </c>
       <c r="E127" t="s">
-        <v>952</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>953</v>
+        <v>933</v>
+      </c>
+      <c r="F127" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B128" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C128" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D128" t="s">
         <v>461</v>
       </c>
       <c r="E128" t="s">
-        <v>778</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F128" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="B129" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="C129" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="D129" t="s">
         <v>461</v>
       </c>
       <c r="E129" t="s">
-        <v>952</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>953</v>
+        <v>933</v>
+      </c>
+      <c r="F129" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="B130" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="C130" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="D130" t="s">
         <v>461</v>
       </c>
       <c r="E130" t="s">
-        <v>778</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F130" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -6066,22 +6072,22 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="B132" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="C132" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="D132" t="s">
         <v>461</v>
       </c>
       <c r="E132" t="s">
-        <v>916</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="F132" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -6129,7 +6135,7 @@
         <v>110</v>
       </c>
       <c r="B135" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="C135" t="s">
         <v>416</v>
@@ -6138,10 +6144,10 @@
         <v>461</v>
       </c>
       <c r="E135" t="s">
-        <v>856</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>826</v>
+        <v>844</v>
+      </c>
+      <c r="F135" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -6149,19 +6155,19 @@
         <v>110</v>
       </c>
       <c r="B136" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="C136" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="D136" t="s">
         <v>461</v>
       </c>
       <c r="E136" t="s">
-        <v>970</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
+      </c>
+      <c r="F136" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -6169,19 +6175,19 @@
         <v>110</v>
       </c>
       <c r="B137" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C137" t="s">
         <v>416</v>
       </c>
       <c r="D137" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E137" t="s">
-        <v>730</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F137" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -6206,22 +6212,22 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="B139" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="C139" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="D139" t="s">
         <v>468</v>
       </c>
       <c r="E139" t="s">
-        <v>980</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>981</v>
+        <v>960</v>
+      </c>
+      <c r="F139" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -6286,22 +6292,22 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B143" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C143" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D143" t="s">
         <v>461</v>
       </c>
       <c r="E143" t="s">
-        <v>640</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F143" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -6418,10 +6424,10 @@
         <v>461</v>
       </c>
       <c r="E149" t="s">
-        <v>730</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F149" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -6438,10 +6444,10 @@
         <v>461</v>
       </c>
       <c r="E150" t="s">
-        <v>908</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F150" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -6478,10 +6484,10 @@
         <v>461</v>
       </c>
       <c r="E152" t="s">
-        <v>908</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F152" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -6500,8 +6506,8 @@
       <c r="E153" t="s">
         <v>557</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>558</v>
+      <c r="F153" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -6552,16 +6558,16 @@
         <v>220</v>
       </c>
       <c r="C156" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D156" t="s">
         <v>461</v>
       </c>
       <c r="E156" t="s">
-        <v>908</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F156" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -6572,7 +6578,7 @@
         <v>220</v>
       </c>
       <c r="C157" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D157" t="s">
         <v>461</v>
@@ -6580,8 +6586,8 @@
       <c r="E157" t="s">
         <v>557</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>558</v>
+      <c r="F157" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -6606,42 +6612,42 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B159" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C159" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D159" t="s">
         <v>461</v>
       </c>
       <c r="E159" t="s">
-        <v>730</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F159" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B160" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C160" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D160" t="s">
         <v>461</v>
       </c>
       <c r="E160" t="s">
-        <v>908</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F160" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -6678,10 +6684,10 @@
         <v>461</v>
       </c>
       <c r="E162" t="s">
-        <v>730</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F162" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -6700,8 +6706,8 @@
       <c r="E163" t="s">
         <v>557</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>558</v>
+      <c r="F163" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -6738,10 +6744,10 @@
         <v>461</v>
       </c>
       <c r="E165" t="s">
-        <v>730</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F165" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -6758,10 +6764,10 @@
         <v>461</v>
       </c>
       <c r="E166" t="s">
-        <v>908</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F166" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -6826,22 +6832,22 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="B170" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="C170" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="D170" t="s">
         <v>461</v>
       </c>
       <c r="E170" t="s">
-        <v>825</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F170" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -6852,16 +6858,16 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D171" t="s">
         <v>461</v>
       </c>
       <c r="E171" t="s">
-        <v>730</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F171" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -6872,7 +6878,7 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D172" t="s">
         <v>461</v>
@@ -6880,8 +6886,8 @@
       <c r="E172" t="s">
         <v>557</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>558</v>
+      <c r="F172" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -6926,42 +6932,42 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B175" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="C175" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D175" t="s">
         <v>461</v>
       </c>
       <c r="E175" t="s">
-        <v>825</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F175" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="B176" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="C176" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="D176" t="s">
         <v>461</v>
       </c>
       <c r="E176" t="s">
-        <v>825</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F176" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -6978,10 +6984,10 @@
         <v>461</v>
       </c>
       <c r="E177" t="s">
-        <v>908</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F177" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -6998,10 +7004,10 @@
         <v>461</v>
       </c>
       <c r="E178" t="s">
-        <v>924</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F178" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -7020,8 +7026,8 @@
       <c r="E179" t="s">
         <v>557</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>558</v>
+      <c r="F179" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -7058,10 +7064,10 @@
         <v>461</v>
       </c>
       <c r="E181" t="s">
-        <v>730</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F181" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -7078,10 +7084,10 @@
         <v>461</v>
       </c>
       <c r="E182" t="s">
-        <v>908</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F182" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -7106,33 +7112,33 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>566</v>
+      </c>
+      <c r="B184" t="s">
         <v>567</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>568</v>
       </c>
-      <c r="C184" t="s">
-        <v>569</v>
-      </c>
       <c r="D184" t="s">
         <v>461</v>
       </c>
       <c r="E184" t="s">
-        <v>730</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F184" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>566</v>
+      </c>
+      <c r="B185" t="s">
         <v>567</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>568</v>
-      </c>
-      <c r="C185" t="s">
-        <v>569</v>
       </c>
       <c r="D185" t="s">
         <v>461</v>
@@ -7140,48 +7146,48 @@
       <c r="E185" t="s">
         <v>557</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>558</v>
+      <c r="F185" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B186" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C186" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D186" t="s">
         <v>461</v>
       </c>
       <c r="E186" t="s">
-        <v>640</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F186" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B187" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C187" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="D187" t="s">
         <v>461</v>
       </c>
       <c r="E187" t="s">
-        <v>778</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F187" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -7198,10 +7204,10 @@
         <v>461</v>
       </c>
       <c r="E188" t="s">
-        <v>730</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F188" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -7226,22 +7232,22 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="B190" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="C190" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="D190" t="s">
         <v>461</v>
       </c>
       <c r="E190" t="s">
-        <v>825</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F190" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -7286,62 +7292,62 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
       <c r="B193" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
       <c r="C193" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="D193" t="s">
         <v>461</v>
       </c>
       <c r="E193" t="s">
-        <v>970</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
+      </c>
+      <c r="F193" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="B194" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="C194" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
       <c r="D194" t="s">
         <v>461</v>
       </c>
       <c r="E194" t="s">
-        <v>970</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
+      </c>
+      <c r="F194" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="B195" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C195" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="D195" t="s">
         <v>461</v>
       </c>
       <c r="E195" t="s">
-        <v>825</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F195" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -7352,16 +7358,16 @@
         <v>228</v>
       </c>
       <c r="C196" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="D196" t="s">
         <v>461</v>
       </c>
       <c r="E196" t="s">
-        <v>908</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F196" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -7498,10 +7504,10 @@
         <v>461</v>
       </c>
       <c r="E203" t="s">
-        <v>730</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F203" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -7520,8 +7526,8 @@
       <c r="E204" t="s">
         <v>557</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>558</v>
+      <c r="F204" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -7606,22 +7612,22 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="B209" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
       <c r="C209" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="D209" t="s">
         <v>461</v>
       </c>
       <c r="E209" t="s">
-        <v>928</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>922</v>
+        <v>910</v>
+      </c>
+      <c r="F209" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -7658,10 +7664,10 @@
         <v>461</v>
       </c>
       <c r="E211" t="s">
-        <v>908</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F211" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -7698,10 +7704,10 @@
         <v>461</v>
       </c>
       <c r="E213" t="s">
-        <v>908</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F213" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -7758,10 +7764,10 @@
         <v>461</v>
       </c>
       <c r="E216" t="s">
-        <v>908</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F216" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -7780,8 +7786,8 @@
       <c r="E217" t="s">
         <v>557</v>
       </c>
-      <c r="F217" s="3" t="s">
-        <v>558</v>
+      <c r="F217" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -7858,10 +7864,10 @@
         <v>461</v>
       </c>
       <c r="E221" t="s">
-        <v>908</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F221" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -7880,8 +7886,8 @@
       <c r="E222" t="s">
         <v>557</v>
       </c>
-      <c r="F222" s="3" t="s">
-        <v>558</v>
+      <c r="F222" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -7926,22 +7932,22 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B225" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="C225" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="D225" t="s">
         <v>461</v>
       </c>
       <c r="E225" t="s">
-        <v>825</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F225" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -7960,8 +7966,8 @@
       <c r="E226" t="s">
         <v>557</v>
       </c>
-      <c r="F226" s="3" t="s">
-        <v>558</v>
+      <c r="F226" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -7986,82 +7992,82 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="B228" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="C228" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="D228" t="s">
         <v>461</v>
       </c>
       <c r="E228" t="s">
-        <v>825</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F228" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>614</v>
+      </c>
+      <c r="B229" t="s">
+        <v>615</v>
+      </c>
+      <c r="C229" t="s">
         <v>616</v>
       </c>
-      <c r="B229" t="s">
-        <v>617</v>
-      </c>
-      <c r="C229" t="s">
-        <v>618</v>
-      </c>
       <c r="D229" t="s">
         <v>461</v>
       </c>
       <c r="E229" t="s">
-        <v>605</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
+      </c>
+      <c r="F229" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="B230" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="C230" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="D230" t="s">
         <v>461</v>
       </c>
       <c r="E230" t="s">
-        <v>908</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F230" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="B231" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="C231" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="D231" t="s">
         <v>461</v>
       </c>
       <c r="E231" t="s">
-        <v>924</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F231" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -8086,62 +8092,62 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B233" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C233" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D233" t="s">
         <v>461</v>
       </c>
       <c r="E233" t="s">
-        <v>640</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F233" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="B234" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="C234" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="D234" t="s">
         <v>461</v>
       </c>
       <c r="E234" t="s">
-        <v>778</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F234" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="B235" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="C235" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="D235" t="s">
         <v>461</v>
       </c>
       <c r="E235" t="s">
-        <v>825</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F235" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -8149,7 +8155,7 @@
         <v>554</v>
       </c>
       <c r="B236" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="C236" t="s">
         <v>555</v>
@@ -8166,33 +8172,33 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="B237" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="C237" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="D237" t="s">
         <v>461</v>
       </c>
       <c r="E237" t="s">
-        <v>938</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>939</v>
+        <v>920</v>
+      </c>
+      <c r="F237" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
+        <v>573</v>
+      </c>
+      <c r="B238" t="s">
         <v>574</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>575</v>
-      </c>
-      <c r="C238" t="s">
-        <v>576</v>
       </c>
       <c r="D238" t="s">
         <v>461</v>
@@ -8200,8 +8206,8 @@
       <c r="E238" t="s">
         <v>557</v>
       </c>
-      <c r="F238" s="3" t="s">
-        <v>558</v>
+      <c r="F238" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -8226,242 +8232,242 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B240" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C240" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D240" t="s">
         <v>461</v>
       </c>
       <c r="E240" t="s">
-        <v>640</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F240" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B241" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C241" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D241" t="s">
         <v>461</v>
       </c>
       <c r="E241" t="s">
-        <v>755</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>731</v>
+        <v>750</v>
+      </c>
+      <c r="F241" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B242" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C242" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D242" t="s">
         <v>461</v>
       </c>
       <c r="E242" t="s">
-        <v>640</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F242" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="B243" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="C243" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="D243" t="s">
         <v>461</v>
       </c>
       <c r="E243" t="s">
-        <v>888</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F243" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B244" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C244" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D244" t="s">
         <v>461</v>
       </c>
       <c r="E244" t="s">
-        <v>640</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F244" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B245" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C245" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D245" t="s">
         <v>461</v>
       </c>
       <c r="E245" t="s">
-        <v>640</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F245" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B246" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C246" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="D246" t="s">
         <v>461</v>
       </c>
       <c r="E246" t="s">
-        <v>888</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F246" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="B247" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="C247" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="D247" t="s">
         <v>461</v>
       </c>
       <c r="E247" t="s">
-        <v>888</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F247" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B248" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C248" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D248" t="s">
         <v>461</v>
       </c>
       <c r="E248" t="s">
-        <v>759</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>767</v>
+        <v>754</v>
+      </c>
+      <c r="F248" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B249" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C249" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D249" t="s">
         <v>461</v>
       </c>
       <c r="E249" t="s">
-        <v>759</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
+      </c>
+      <c r="F249" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B250" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C250" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D250" t="s">
         <v>461</v>
       </c>
       <c r="E250" t="s">
-        <v>640</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F250" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B251" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C251" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="D251" t="s">
         <v>461</v>
       </c>
       <c r="E251" t="s">
-        <v>888</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F251" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -8492,7 +8498,7 @@
         <v>299</v>
       </c>
       <c r="C253" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D253" t="s">
         <v>461</v>
@@ -8500,8 +8506,8 @@
       <c r="E253" t="s">
         <v>557</v>
       </c>
-      <c r="F253" s="3" t="s">
-        <v>558</v>
+      <c r="F253" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -8526,22 +8532,22 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="B255" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="C255" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="D255" t="s">
         <v>461</v>
       </c>
       <c r="E255" t="s">
-        <v>888</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F255" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -8592,7 +8598,7 @@
         <v>292</v>
       </c>
       <c r="C258" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D258" t="s">
         <v>461</v>
@@ -8600,8 +8606,8 @@
       <c r="E258" t="s">
         <v>557</v>
       </c>
-      <c r="F258" s="3" t="s">
-        <v>558</v>
+      <c r="F258" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -8646,42 +8652,42 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B261" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C261" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D261" t="s">
         <v>461</v>
       </c>
       <c r="E261" t="s">
-        <v>640</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F261" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B262" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C262" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="D262" t="s">
         <v>461</v>
       </c>
       <c r="E262" t="s">
-        <v>888</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="F262" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -8706,42 +8712,42 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B264" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C264" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D264" t="s">
         <v>461</v>
       </c>
       <c r="E264" t="s">
-        <v>640</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F264" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B265" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C265" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D265" t="s">
         <v>461</v>
       </c>
       <c r="E265" t="s">
-        <v>640</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F265" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -8749,7 +8755,7 @@
         <v>110</v>
       </c>
       <c r="B266" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C266" t="s">
         <v>417</v>
@@ -8758,10 +8764,10 @@
         <v>461</v>
       </c>
       <c r="E266" t="s">
-        <v>730</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F266" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -8806,22 +8812,22 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="B269" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C269" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="D269" t="s">
         <v>468</v>
       </c>
       <c r="E269" t="s">
-        <v>980</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>981</v>
+        <v>960</v>
+      </c>
+      <c r="F269" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -8866,22 +8872,22 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B272" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C272" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D272" t="s">
         <v>461</v>
       </c>
       <c r="E272" t="s">
-        <v>640</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F272" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -8986,42 +8992,42 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B278" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C278" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D278" t="s">
         <v>461</v>
       </c>
       <c r="E278" t="s">
-        <v>778</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F278" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B279" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C279" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D279" t="s">
         <v>461</v>
       </c>
       <c r="E279" t="s">
-        <v>627</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
+      </c>
+      <c r="F279" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -9066,82 +9072,82 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="B282" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="C282" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="D282" t="s">
         <v>461</v>
       </c>
       <c r="E282" t="s">
-        <v>825</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F282" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
+        <v>611</v>
+      </c>
+      <c r="B283" t="s">
+        <v>612</v>
+      </c>
+      <c r="C283" t="s">
         <v>613</v>
       </c>
-      <c r="B283" t="s">
-        <v>614</v>
-      </c>
-      <c r="C283" t="s">
-        <v>615</v>
-      </c>
       <c r="D283" t="s">
         <v>461</v>
       </c>
       <c r="E283" t="s">
-        <v>605</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
+      </c>
+      <c r="F283" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B284" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C284" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D284" t="s">
         <v>461</v>
       </c>
       <c r="E284" t="s">
-        <v>825</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F284" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B285" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="C285" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="D285" t="s">
         <v>461</v>
       </c>
       <c r="E285" t="s">
-        <v>825</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="F285" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -9158,10 +9164,10 @@
         <v>461</v>
       </c>
       <c r="E286" t="s">
-        <v>924</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F286" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -9218,10 +9224,10 @@
         <v>461</v>
       </c>
       <c r="E289" t="s">
-        <v>730</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F289" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -9238,10 +9244,10 @@
         <v>461</v>
       </c>
       <c r="E290" t="s">
-        <v>908</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F290" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -9260,8 +9266,8 @@
       <c r="E291" t="s">
         <v>557</v>
       </c>
-      <c r="F291" s="3" t="s">
-        <v>558</v>
+      <c r="F291" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -9326,33 +9332,33 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
+        <v>569</v>
+      </c>
+      <c r="B295" t="s">
         <v>570</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>571</v>
       </c>
-      <c r="C295" t="s">
-        <v>572</v>
-      </c>
       <c r="D295" t="s">
         <v>461</v>
       </c>
       <c r="E295" t="s">
-        <v>908</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F295" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>569</v>
+      </c>
+      <c r="B296" t="s">
         <v>570</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>571</v>
-      </c>
-      <c r="C296" t="s">
-        <v>572</v>
       </c>
       <c r="D296" t="s">
         <v>461</v>
@@ -9360,8 +9366,8 @@
       <c r="E296" t="s">
         <v>557</v>
       </c>
-      <c r="F296" s="3" t="s">
-        <v>558</v>
+      <c r="F296" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
@@ -9498,10 +9504,10 @@
         <v>461</v>
       </c>
       <c r="E303" t="s">
-        <v>908</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F303" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -9538,10 +9544,10 @@
         <v>461</v>
       </c>
       <c r="E305" t="s">
-        <v>921</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
+      </c>
+      <c r="F305" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -9658,10 +9664,10 @@
         <v>461</v>
       </c>
       <c r="E311" t="s">
-        <v>908</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F311" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -9718,10 +9724,10 @@
         <v>461</v>
       </c>
       <c r="E314" t="s">
-        <v>730</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F314" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
@@ -9778,10 +9784,10 @@
         <v>461</v>
       </c>
       <c r="E317" t="s">
-        <v>730</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F317" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -9798,10 +9804,10 @@
         <v>461</v>
       </c>
       <c r="E318" t="s">
-        <v>908</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F318" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
@@ -9818,10 +9824,10 @@
         <v>461</v>
       </c>
       <c r="E319" t="s">
-        <v>908</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F319" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
@@ -9838,10 +9844,10 @@
         <v>461</v>
       </c>
       <c r="E320" t="s">
-        <v>921</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
+      </c>
+      <c r="F320" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -9906,62 +9912,62 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B324" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C324" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D324" t="s">
         <v>461</v>
       </c>
       <c r="E324" t="s">
-        <v>640</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="F324" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B325" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C325" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D325" t="s">
         <v>461</v>
       </c>
       <c r="E325" t="s">
-        <v>730</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F325" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B326" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C326" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D326" t="s">
         <v>461</v>
       </c>
       <c r="E326" t="s">
-        <v>924</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F326" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
@@ -10026,22 +10032,22 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
+        <v>605</v>
+      </c>
+      <c r="B330" t="s">
+        <v>606</v>
+      </c>
+      <c r="C330" t="s">
         <v>607</v>
       </c>
-      <c r="B330" t="s">
-        <v>608</v>
-      </c>
-      <c r="C330" t="s">
-        <v>609</v>
-      </c>
       <c r="D330" t="s">
         <v>461</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
+      </c>
+      <c r="F330" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10066,22 +10072,22 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
+        <v>608</v>
+      </c>
+      <c r="B332" t="s">
+        <v>609</v>
+      </c>
+      <c r="C332" t="s">
         <v>610</v>
       </c>
-      <c r="B332" t="s">
-        <v>611</v>
-      </c>
-      <c r="C332" t="s">
-        <v>612</v>
-      </c>
       <c r="D332" t="s">
         <v>461</v>
       </c>
       <c r="E332" t="s">
-        <v>605</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
+      </c>
+      <c r="F332" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
@@ -10106,22 +10112,22 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B334" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C334" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="D334" t="s">
         <v>461</v>
       </c>
       <c r="E334" t="s">
-        <v>778</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F334" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10138,10 +10144,10 @@
         <v>461</v>
       </c>
       <c r="E335" t="s">
-        <v>908</v>
-      </c>
-      <c r="F335" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F335" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
@@ -10158,10 +10164,10 @@
         <v>461</v>
       </c>
       <c r="E336" t="s">
-        <v>924</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F336" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
@@ -10198,10 +10204,10 @@
         <v>461</v>
       </c>
       <c r="E338" t="s">
-        <v>908</v>
-      </c>
-      <c r="F338" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F338" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
@@ -10238,10 +10244,10 @@
         <v>461</v>
       </c>
       <c r="E340" t="s">
-        <v>908</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F340" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
@@ -10258,10 +10264,10 @@
         <v>461</v>
       </c>
       <c r="E341" t="s">
-        <v>924</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F341" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
@@ -10349,7 +10355,7 @@
         <v>19</v>
       </c>
       <c r="B346" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="C346" t="s">
         <v>322</v>
@@ -10358,10 +10364,10 @@
         <v>461</v>
       </c>
       <c r="E346" t="s">
-        <v>778</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F346" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -10406,22 +10412,22 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
+        <v>601</v>
+      </c>
+      <c r="B349" t="s">
         <v>602</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>603</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" t="s">
+        <v>461</v>
+      </c>
+      <c r="E349" t="s">
         <v>604</v>
       </c>
-      <c r="D349" t="s">
-        <v>461</v>
-      </c>
-      <c r="E349" t="s">
-        <v>605</v>
-      </c>
-      <c r="F349" s="3" t="s">
-        <v>606</v>
+      <c r="F349" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
@@ -10438,10 +10444,10 @@
         <v>461</v>
       </c>
       <c r="E350" t="s">
-        <v>877</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F350" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
@@ -10558,10 +10564,10 @@
         <v>461</v>
       </c>
       <c r="E356" t="s">
-        <v>771</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>772</v>
+        <v>763</v>
+      </c>
+      <c r="F356" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
@@ -10678,10 +10684,10 @@
         <v>461</v>
       </c>
       <c r="E362" t="s">
-        <v>908</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F362" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
@@ -10718,10 +10724,10 @@
         <v>461</v>
       </c>
       <c r="E364" t="s">
-        <v>771</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>772</v>
+        <v>763</v>
+      </c>
+      <c r="F364" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -10738,10 +10744,10 @@
         <v>461</v>
       </c>
       <c r="E365" t="s">
-        <v>877</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F365" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
@@ -10758,10 +10764,10 @@
         <v>461</v>
       </c>
       <c r="E366" t="s">
-        <v>908</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F366" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
@@ -10818,10 +10824,10 @@
         <v>461</v>
       </c>
       <c r="E369" t="s">
-        <v>773</v>
-      </c>
-      <c r="F369" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
+      </c>
+      <c r="F369" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
@@ -10849,19 +10855,19 @@
         <v>46</v>
       </c>
       <c r="B371" t="s">
-        <v>195</v>
+        <v>986</v>
       </c>
       <c r="C371" t="s">
         <v>348</v>
       </c>
       <c r="D371" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E371" t="s">
-        <v>908</v>
-      </c>
-      <c r="F371" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F371" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
@@ -10878,10 +10884,10 @@
         <v>461</v>
       </c>
       <c r="E372" t="s">
-        <v>877</v>
-      </c>
-      <c r="F372" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F372" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
@@ -10898,10 +10904,10 @@
         <v>461</v>
       </c>
       <c r="E373" t="s">
-        <v>908</v>
-      </c>
-      <c r="F373" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F373" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
@@ -10966,22 +10972,22 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="B377" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C377" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D377" t="s">
         <v>461</v>
       </c>
       <c r="E377" t="s">
-        <v>817</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>818</v>
+        <v>807</v>
+      </c>
+      <c r="F377" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
@@ -11018,15 +11024,15 @@
         <v>461</v>
       </c>
       <c r="E379" t="s">
-        <v>771</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>772</v>
+        <v>763</v>
+      </c>
+      <c r="F379" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="B380" t="s">
         <v>186</v>
@@ -11038,10 +11044,10 @@
         <v>461</v>
       </c>
       <c r="E380" t="s">
-        <v>877</v>
-      </c>
-      <c r="F380" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F380" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
@@ -11078,10 +11084,10 @@
         <v>461</v>
       </c>
       <c r="E382" t="s">
-        <v>877</v>
-      </c>
-      <c r="F382" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F382" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
@@ -11106,22 +11112,22 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="B384" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="C384" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="D384" t="s">
         <v>461</v>
       </c>
       <c r="E384" t="s">
-        <v>877</v>
-      </c>
-      <c r="F384" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F384" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
@@ -11146,13 +11152,13 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
+        <v>584</v>
+      </c>
+      <c r="B386" t="s">
         <v>585</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
         <v>586</v>
-      </c>
-      <c r="C386" t="s">
-        <v>587</v>
       </c>
       <c r="D386" t="s">
         <v>461</v>
@@ -11160,28 +11166,28 @@
       <c r="E386" t="s">
         <v>557</v>
       </c>
-      <c r="F386" s="3" t="s">
-        <v>558</v>
+      <c r="F386" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="B387" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="C387" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="D387" t="s">
         <v>461</v>
       </c>
       <c r="E387" t="s">
-        <v>877</v>
-      </c>
-      <c r="F387" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F387" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
@@ -11198,10 +11204,10 @@
         <v>461</v>
       </c>
       <c r="E388" t="s">
-        <v>877</v>
-      </c>
-      <c r="F388" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F388" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
@@ -11238,10 +11244,10 @@
         <v>461</v>
       </c>
       <c r="E390" t="s">
-        <v>771</v>
-      </c>
-      <c r="F390" s="3" t="s">
-        <v>772</v>
+        <v>763</v>
+      </c>
+      <c r="F390" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
@@ -11266,13 +11272,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
+        <v>593</v>
+      </c>
+      <c r="B392" t="s">
         <v>594</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C392" t="s">
         <v>595</v>
-      </c>
-      <c r="C392" t="s">
-        <v>596</v>
       </c>
       <c r="D392" t="s">
         <v>461</v>
@@ -11280,8 +11286,8 @@
       <c r="E392" t="s">
         <v>557</v>
       </c>
-      <c r="F392" s="3" t="s">
-        <v>558</v>
+      <c r="F392" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
@@ -11329,7 +11335,7 @@
         <v>107</v>
       </c>
       <c r="B395" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C395" t="s">
         <v>411</v>
@@ -11338,10 +11344,10 @@
         <v>461</v>
       </c>
       <c r="E395" t="s">
-        <v>730</v>
-      </c>
-      <c r="F395" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F395" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
@@ -11349,7 +11355,7 @@
         <v>107</v>
       </c>
       <c r="B396" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C396" t="s">
         <v>411</v>
@@ -11358,10 +11364,10 @@
         <v>461</v>
       </c>
       <c r="E396" t="s">
-        <v>908</v>
-      </c>
-      <c r="F396" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F396" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
@@ -11386,42 +11392,42 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B398" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="C398" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D398" t="s">
         <v>461</v>
       </c>
       <c r="E398" t="s">
-        <v>778</v>
-      </c>
-      <c r="F398" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
+      </c>
+      <c r="F398" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="B399" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="C399" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="D399" t="s">
         <v>461</v>
       </c>
       <c r="E399" t="s">
-        <v>928</v>
-      </c>
-      <c r="F399" s="3" t="s">
-        <v>922</v>
+        <v>910</v>
+      </c>
+      <c r="F399" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
@@ -11446,33 +11452,33 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
+        <v>560</v>
+      </c>
+      <c r="B401" t="s">
         <v>561</v>
       </c>
-      <c r="B401" t="s">
-        <v>562</v>
-      </c>
       <c r="C401" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D401" t="s">
         <v>461</v>
       </c>
       <c r="E401" t="s">
-        <v>730</v>
-      </c>
-      <c r="F401" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F401" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
+        <v>560</v>
+      </c>
+      <c r="B402" t="s">
         <v>561</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>562</v>
-      </c>
-      <c r="C402" t="s">
-        <v>563</v>
       </c>
       <c r="D402" t="s">
         <v>461</v>
@@ -11480,8 +11486,8 @@
       <c r="E402" t="s">
         <v>557</v>
       </c>
-      <c r="F402" s="3" t="s">
-        <v>558</v>
+      <c r="F402" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
@@ -11492,16 +11498,16 @@
         <v>194</v>
       </c>
       <c r="C403" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D403" t="s">
         <v>461</v>
       </c>
       <c r="E403" t="s">
-        <v>908</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F403" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
@@ -11512,7 +11518,7 @@
         <v>194</v>
       </c>
       <c r="C404" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D404" t="s">
         <v>461</v>
@@ -11520,8 +11526,8 @@
       <c r="E404" t="s">
         <v>557</v>
       </c>
-      <c r="F404" s="3" t="s">
-        <v>558</v>
+      <c r="F404" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
@@ -11558,10 +11564,10 @@
         <v>461</v>
       </c>
       <c r="E406" t="s">
-        <v>730</v>
-      </c>
-      <c r="F406" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F406" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
@@ -11572,16 +11578,16 @@
         <v>172</v>
       </c>
       <c r="C407" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D407" t="s">
         <v>461</v>
       </c>
       <c r="E407" t="s">
-        <v>877</v>
-      </c>
-      <c r="F407" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F407" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
@@ -11592,16 +11598,16 @@
         <v>172</v>
       </c>
       <c r="C408" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D408" t="s">
         <v>461</v>
       </c>
       <c r="E408" t="s">
-        <v>908</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F408" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
@@ -11612,16 +11618,16 @@
         <v>172</v>
       </c>
       <c r="C409" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D409" t="s">
         <v>461</v>
       </c>
       <c r="E409" t="s">
-        <v>924</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F409" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
@@ -11632,7 +11638,7 @@
         <v>172</v>
       </c>
       <c r="C410" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D410" t="s">
         <v>461</v>
@@ -11640,8 +11646,8 @@
       <c r="E410" t="s">
         <v>557</v>
       </c>
-      <c r="F410" s="3" t="s">
-        <v>558</v>
+      <c r="F410" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
@@ -11686,22 +11692,22 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B413" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C413" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D413" t="s">
         <v>461</v>
       </c>
       <c r="E413" t="s">
-        <v>730</v>
-      </c>
-      <c r="F413" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F413" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
@@ -11718,10 +11724,10 @@
         <v>461</v>
       </c>
       <c r="E414" t="s">
-        <v>730</v>
-      </c>
-      <c r="F414" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F414" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
@@ -11732,16 +11738,16 @@
         <v>193</v>
       </c>
       <c r="C415" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D415" t="s">
         <v>461</v>
       </c>
       <c r="E415" t="s">
-        <v>877</v>
-      </c>
-      <c r="F415" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F415" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
@@ -11752,16 +11758,16 @@
         <v>193</v>
       </c>
       <c r="C416" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D416" t="s">
         <v>461</v>
       </c>
       <c r="E416" t="s">
-        <v>908</v>
-      </c>
-      <c r="F416" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F416" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
@@ -11772,16 +11778,16 @@
         <v>193</v>
       </c>
       <c r="C417" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D417" t="s">
         <v>461</v>
       </c>
       <c r="E417" t="s">
-        <v>924</v>
-      </c>
-      <c r="F417" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F417" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
@@ -11792,7 +11798,7 @@
         <v>193</v>
       </c>
       <c r="C418" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D418" t="s">
         <v>461</v>
@@ -11800,8 +11806,8 @@
       <c r="E418" t="s">
         <v>557</v>
       </c>
-      <c r="F418" s="3" t="s">
-        <v>558</v>
+      <c r="F418" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
@@ -11826,22 +11832,22 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B420" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C420" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D420" t="s">
         <v>461</v>
       </c>
       <c r="E420" t="s">
-        <v>730</v>
-      </c>
-      <c r="F420" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F420" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
@@ -11860,8 +11866,8 @@
       <c r="E421" t="s">
         <v>557</v>
       </c>
-      <c r="F421" s="3" t="s">
-        <v>558</v>
+      <c r="F421" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
@@ -11898,10 +11904,10 @@
         <v>461</v>
       </c>
       <c r="E423" t="s">
-        <v>730</v>
-      </c>
-      <c r="F423" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F423" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
@@ -11918,10 +11924,10 @@
         <v>461</v>
       </c>
       <c r="E424" t="s">
-        <v>877</v>
-      </c>
-      <c r="F424" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F424" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
@@ -11938,10 +11944,10 @@
         <v>461</v>
       </c>
       <c r="E425" t="s">
-        <v>908</v>
-      </c>
-      <c r="F425" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F425" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
@@ -11958,10 +11964,10 @@
         <v>461</v>
       </c>
       <c r="E426" t="s">
-        <v>921</v>
-      </c>
-      <c r="F426" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
+      </c>
+      <c r="F426" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
@@ -11978,10 +11984,10 @@
         <v>461</v>
       </c>
       <c r="E427" t="s">
-        <v>924</v>
-      </c>
-      <c r="F427" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
+      </c>
+      <c r="F427" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
@@ -12000,8 +12006,8 @@
       <c r="E428" t="s">
         <v>557</v>
       </c>
-      <c r="F428" s="3" t="s">
-        <v>558</v>
+      <c r="F428" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
@@ -12026,22 +12032,22 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B430" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C430" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D430" t="s">
         <v>461</v>
       </c>
       <c r="E430" t="s">
-        <v>730</v>
-      </c>
-      <c r="F430" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F430" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
@@ -12052,16 +12058,16 @@
         <v>173</v>
       </c>
       <c r="C431" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="D431" t="s">
         <v>461</v>
       </c>
       <c r="E431" t="s">
-        <v>877</v>
-      </c>
-      <c r="F431" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F431" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
@@ -12072,16 +12078,16 @@
         <v>173</v>
       </c>
       <c r="C432" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="D432" t="s">
         <v>461</v>
       </c>
       <c r="E432" t="s">
-        <v>908</v>
-      </c>
-      <c r="F432" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
+      </c>
+      <c r="F432" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
@@ -12118,10 +12124,10 @@
         <v>461</v>
       </c>
       <c r="E434" t="s">
-        <v>771</v>
-      </c>
-      <c r="F434" s="3" t="s">
-        <v>772</v>
+        <v>763</v>
+      </c>
+      <c r="F434" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
@@ -12132,16 +12138,16 @@
         <v>174</v>
       </c>
       <c r="C435" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="D435" t="s">
         <v>461</v>
       </c>
       <c r="E435" t="s">
-        <v>877</v>
-      </c>
-      <c r="F435" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
+      </c>
+      <c r="F435" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
@@ -12166,42 +12172,42 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="B437" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="C437" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="D437" t="s">
         <v>461</v>
       </c>
       <c r="E437" t="s">
-        <v>965</v>
-      </c>
-      <c r="F437" s="3" t="s">
-        <v>953</v>
+        <v>945</v>
+      </c>
+      <c r="F437" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="B438" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="C438" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="D438" t="s">
         <v>461</v>
       </c>
       <c r="E438" t="s">
-        <v>952</v>
-      </c>
-      <c r="F438" s="3" t="s">
-        <v>953</v>
+        <v>933</v>
+      </c>
+      <c r="F438" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
@@ -12226,22 +12232,22 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="B440" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="C440" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="D440" t="s">
         <v>461</v>
       </c>
       <c r="E440" t="s">
-        <v>938</v>
-      </c>
-      <c r="F440" s="3" t="s">
-        <v>939</v>
+        <v>920</v>
+      </c>
+      <c r="F440" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
@@ -12306,13 +12312,13 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
+        <v>598</v>
+      </c>
+      <c r="B444" t="s">
         <v>599</v>
       </c>
-      <c r="B444" t="s">
+      <c r="C444" t="s">
         <v>600</v>
-      </c>
-      <c r="C444" t="s">
-        <v>601</v>
       </c>
       <c r="D444" t="s">
         <v>461</v>
@@ -12320,8 +12326,8 @@
       <c r="E444" t="s">
         <v>557</v>
       </c>
-      <c r="F444" s="3" t="s">
-        <v>558</v>
+      <c r="F444" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
@@ -12346,42 +12352,42 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="B446" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="C446" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="D446" t="s">
         <v>461</v>
       </c>
       <c r="E446" t="s">
-        <v>965</v>
-      </c>
-      <c r="F446" s="3" t="s">
-        <v>953</v>
+        <v>945</v>
+      </c>
+      <c r="F446" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="B447" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
       <c r="C447" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="D447" t="s">
         <v>461</v>
       </c>
       <c r="E447" t="s">
-        <v>928</v>
-      </c>
-      <c r="F447" s="3" t="s">
-        <v>922</v>
+        <v>910</v>
+      </c>
+      <c r="F447" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
@@ -12392,16 +12398,16 @@
         <v>225</v>
       </c>
       <c r="C448" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D448" t="s">
         <v>461</v>
       </c>
       <c r="E448" t="s">
-        <v>730</v>
-      </c>
-      <c r="F448" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F448" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
@@ -12432,16 +12438,16 @@
         <v>224</v>
       </c>
       <c r="C450" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D450" t="s">
         <v>461</v>
       </c>
       <c r="E450" t="s">
-        <v>730</v>
-      </c>
-      <c r="F450" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F450" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
@@ -12452,7 +12458,7 @@
         <v>224</v>
       </c>
       <c r="C451" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D451" t="s">
         <v>461</v>
@@ -12460,8 +12466,8 @@
       <c r="E451" t="s">
         <v>557</v>
       </c>
-      <c r="F451" s="3" t="s">
-        <v>558</v>
+      <c r="F451" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
@@ -12492,16 +12498,16 @@
         <v>223</v>
       </c>
       <c r="C453" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D453" t="s">
         <v>461</v>
       </c>
       <c r="E453" t="s">
-        <v>730</v>
-      </c>
-      <c r="F453" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F453" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
@@ -12532,16 +12538,16 @@
         <v>222</v>
       </c>
       <c r="C455" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D455" t="s">
         <v>461</v>
       </c>
       <c r="E455" t="s">
-        <v>730</v>
-      </c>
-      <c r="F455" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="F455" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
@@ -12552,16 +12558,16 @@
         <v>222</v>
       </c>
       <c r="C456" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="D456" t="s">
         <v>461</v>
       </c>
       <c r="E456" t="s">
-        <v>921</v>
-      </c>
-      <c r="F456" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
+      </c>
+      <c r="F456" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
@@ -12572,7 +12578,7 @@
         <v>222</v>
       </c>
       <c r="C457" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D457" t="s">
         <v>461</v>
@@ -12580,8 +12586,8 @@
       <c r="E457" t="s">
         <v>557</v>
       </c>
-      <c r="F457" s="3" t="s">
-        <v>558</v>
+      <c r="F457" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
@@ -12626,13 +12632,13 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
+        <v>590</v>
+      </c>
+      <c r="B460" t="s">
         <v>591</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>592</v>
-      </c>
-      <c r="C460" t="s">
-        <v>593</v>
       </c>
       <c r="D460" t="s">
         <v>461</v>
@@ -12640,28 +12646,28 @@
       <c r="E460" t="s">
         <v>557</v>
       </c>
-      <c r="F460" s="3" t="s">
-        <v>558</v>
+      <c r="F460" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="B461" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="C461" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="D461" t="s">
         <v>461</v>
       </c>
       <c r="E461" t="s">
-        <v>938</v>
-      </c>
-      <c r="F461" s="3" t="s">
-        <v>939</v>
+        <v>920</v>
+      </c>
+      <c r="F461" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
@@ -12686,22 +12692,22 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
+        <v>617</v>
+      </c>
+      <c r="B463" t="s">
+        <v>618</v>
+      </c>
+      <c r="C463" t="s">
         <v>619</v>
       </c>
-      <c r="B463" t="s">
+      <c r="D463" t="s">
+        <v>461</v>
+      </c>
+      <c r="E463" t="s">
         <v>620</v>
       </c>
-      <c r="C463" t="s">
-        <v>621</v>
-      </c>
-      <c r="D463" t="s">
-        <v>461</v>
-      </c>
-      <c r="E463" t="s">
-        <v>622</v>
-      </c>
-      <c r="F463" s="3" t="s">
-        <v>623</v>
+      <c r="F463" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
@@ -14218,768 +14224,6 @@
     </row>
     <row r="968" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F968" s="3"/>
-    </row>
-    <row r="969" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F969" s="3"/>
-    </row>
-    <row r="970" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F970" s="3"/>
-    </row>
-    <row r="971" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F971" s="3"/>
-    </row>
-    <row r="972" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F972" s="3"/>
-    </row>
-    <row r="973" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F973" s="3"/>
-    </row>
-    <row r="974" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F974" s="3"/>
-    </row>
-    <row r="975" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F975" s="3"/>
-    </row>
-    <row r="976" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F976" s="3"/>
-    </row>
-    <row r="977" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F977" s="3"/>
-    </row>
-    <row r="978" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F978" s="3"/>
-    </row>
-    <row r="979" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F979" s="3"/>
-    </row>
-    <row r="980" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F980" s="3"/>
-    </row>
-    <row r="981" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F981" s="3"/>
-    </row>
-    <row r="982" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F982" s="3"/>
-    </row>
-    <row r="983" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F983" s="3"/>
-    </row>
-    <row r="984" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F984" s="3"/>
-    </row>
-    <row r="985" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F985" s="3"/>
-    </row>
-    <row r="986" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F986" s="3"/>
-    </row>
-    <row r="987" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F987" s="3"/>
-    </row>
-    <row r="988" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F988" s="3"/>
-    </row>
-    <row r="989" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F989" s="3"/>
-    </row>
-    <row r="990" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F990" s="3"/>
-    </row>
-    <row r="991" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F991" s="3"/>
-    </row>
-    <row r="992" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F992" s="3"/>
-    </row>
-    <row r="993" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F993" s="3"/>
-    </row>
-    <row r="994" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F994" s="3"/>
-    </row>
-    <row r="995" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F995" s="3"/>
-    </row>
-    <row r="996" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F996" s="3"/>
-    </row>
-    <row r="997" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F997" s="3"/>
-    </row>
-    <row r="998" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F998" s="3"/>
-    </row>
-    <row r="999" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F999" s="3"/>
-    </row>
-    <row r="1000" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1000" s="3"/>
-    </row>
-    <row r="1001" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1001" s="3"/>
-    </row>
-    <row r="1002" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1002" s="3"/>
-    </row>
-    <row r="1003" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1003" s="3"/>
-    </row>
-    <row r="1004" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1004" s="3"/>
-    </row>
-    <row r="1005" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1005" s="3"/>
-    </row>
-    <row r="1006" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1006" s="3"/>
-    </row>
-    <row r="1007" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1007" s="3"/>
-    </row>
-    <row r="1008" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1008" s="3"/>
-    </row>
-    <row r="1009" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1009" s="3"/>
-    </row>
-    <row r="1010" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1010" s="3"/>
-    </row>
-    <row r="1011" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1011" s="3"/>
-    </row>
-    <row r="1012" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1012" s="3"/>
-    </row>
-    <row r="1013" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1013" s="3"/>
-    </row>
-    <row r="1014" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1014" s="3"/>
-    </row>
-    <row r="1015" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1015" s="3"/>
-    </row>
-    <row r="1016" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1016" s="3"/>
-    </row>
-    <row r="1017" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1017" s="3"/>
-    </row>
-    <row r="1018" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1018" s="3"/>
-    </row>
-    <row r="1019" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1019" s="3"/>
-    </row>
-    <row r="1020" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1020" s="3"/>
-    </row>
-    <row r="1021" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1021" s="3"/>
-    </row>
-    <row r="1022" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1022" s="3"/>
-    </row>
-    <row r="1023" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1023" s="3"/>
-    </row>
-    <row r="1024" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1024" s="3"/>
-    </row>
-    <row r="1025" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1025" s="3"/>
-    </row>
-    <row r="1026" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1026" s="3"/>
-    </row>
-    <row r="1027" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1027" s="3"/>
-    </row>
-    <row r="1028" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1028" s="3"/>
-    </row>
-    <row r="1029" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1029" s="3"/>
-    </row>
-    <row r="1030" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1030" s="3"/>
-    </row>
-    <row r="1031" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1031" s="3"/>
-    </row>
-    <row r="1032" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1032" s="3"/>
-    </row>
-    <row r="1033" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1033" s="3"/>
-    </row>
-    <row r="1034" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1034" s="3"/>
-    </row>
-    <row r="1035" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1035" s="3"/>
-    </row>
-    <row r="1036" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1036" s="3"/>
-    </row>
-    <row r="1037" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1037" s="3"/>
-    </row>
-    <row r="1038" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1038" s="3"/>
-    </row>
-    <row r="1039" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1039" s="3"/>
-    </row>
-    <row r="1040" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1040" s="3"/>
-    </row>
-    <row r="1041" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1041" s="3"/>
-    </row>
-    <row r="1042" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1042" s="3"/>
-    </row>
-    <row r="1043" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1043" s="3"/>
-    </row>
-    <row r="1044" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1044" s="3"/>
-    </row>
-    <row r="1045" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1045" s="3"/>
-    </row>
-    <row r="1046" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1046" s="3"/>
-    </row>
-    <row r="1047" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1047" s="3"/>
-    </row>
-    <row r="1048" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1048" s="3"/>
-    </row>
-    <row r="1049" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1049" s="3"/>
-    </row>
-    <row r="1050" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1050" s="3"/>
-    </row>
-    <row r="1051" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1051" s="3"/>
-    </row>
-    <row r="1052" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1052" s="3"/>
-    </row>
-    <row r="1053" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1053" s="3"/>
-    </row>
-    <row r="1054" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1054" s="3"/>
-    </row>
-    <row r="1055" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1055" s="3"/>
-    </row>
-    <row r="1056" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1056" s="3"/>
-    </row>
-    <row r="1057" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1057" s="3"/>
-    </row>
-    <row r="1058" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1058" s="3"/>
-    </row>
-    <row r="1059" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1059" s="3"/>
-    </row>
-    <row r="1060" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1060" s="3"/>
-    </row>
-    <row r="1061" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1061" s="3"/>
-    </row>
-    <row r="1062" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1062" s="3"/>
-    </row>
-    <row r="1063" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1063" s="3"/>
-    </row>
-    <row r="1064" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1064" s="3"/>
-    </row>
-    <row r="1065" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1065" s="3"/>
-    </row>
-    <row r="1066" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1066" s="3"/>
-    </row>
-    <row r="1067" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1067" s="3"/>
-    </row>
-    <row r="1068" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1068" s="3"/>
-    </row>
-    <row r="1069" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1069" s="3"/>
-    </row>
-    <row r="1070" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1070" s="3"/>
-    </row>
-    <row r="1071" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1071" s="3"/>
-    </row>
-    <row r="1072" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1072" s="3"/>
-    </row>
-    <row r="1073" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1073" s="3"/>
-    </row>
-    <row r="1074" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1074" s="3"/>
-    </row>
-    <row r="1075" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1075" s="3"/>
-    </row>
-    <row r="1076" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1076" s="3"/>
-    </row>
-    <row r="1077" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1077" s="3"/>
-    </row>
-    <row r="1078" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1078" s="3"/>
-    </row>
-    <row r="1079" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1079" s="3"/>
-    </row>
-    <row r="1080" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1080" s="3"/>
-    </row>
-    <row r="1081" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1081" s="3"/>
-    </row>
-    <row r="1082" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1082" s="3"/>
-    </row>
-    <row r="1083" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1083" s="3"/>
-    </row>
-    <row r="1084" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1084" s="3"/>
-    </row>
-    <row r="1085" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1085" s="3"/>
-    </row>
-    <row r="1086" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1086" s="3"/>
-    </row>
-    <row r="1087" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1087" s="3"/>
-    </row>
-    <row r="1088" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1088" s="3"/>
-    </row>
-    <row r="1089" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1089" s="3"/>
-    </row>
-    <row r="1090" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1090" s="3"/>
-    </row>
-    <row r="1091" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1091" s="3"/>
-    </row>
-    <row r="1092" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1092" s="3"/>
-    </row>
-    <row r="1093" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1093" s="3"/>
-    </row>
-    <row r="1094" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1094" s="3"/>
-    </row>
-    <row r="1095" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1095" s="3"/>
-    </row>
-    <row r="1096" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1096" s="3"/>
-    </row>
-    <row r="1097" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1097" s="3"/>
-    </row>
-    <row r="1098" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1098" s="3"/>
-    </row>
-    <row r="1099" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1099" s="3"/>
-    </row>
-    <row r="1100" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1100" s="3"/>
-    </row>
-    <row r="1101" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1101" s="3"/>
-    </row>
-    <row r="1102" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1102" s="3"/>
-    </row>
-    <row r="1103" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1103" s="3"/>
-    </row>
-    <row r="1104" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1104" s="3"/>
-    </row>
-    <row r="1105" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1105" s="3"/>
-    </row>
-    <row r="1106" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1106" s="3"/>
-    </row>
-    <row r="1107" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1107" s="3"/>
-    </row>
-    <row r="1108" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1108" s="3"/>
-    </row>
-    <row r="1109" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1109" s="3"/>
-    </row>
-    <row r="1110" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1110" s="3"/>
-    </row>
-    <row r="1111" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1111" s="3"/>
-    </row>
-    <row r="1112" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1112" s="3"/>
-    </row>
-    <row r="1113" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1113" s="3"/>
-    </row>
-    <row r="1114" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1114" s="3"/>
-    </row>
-    <row r="1115" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1115" s="3"/>
-    </row>
-    <row r="1116" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1116" s="3"/>
-    </row>
-    <row r="1117" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1117" s="3"/>
-    </row>
-    <row r="1118" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1118" s="3"/>
-    </row>
-    <row r="1119" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1119" s="3"/>
-    </row>
-    <row r="1120" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1120" s="3"/>
-    </row>
-    <row r="1121" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1121" s="3"/>
-    </row>
-    <row r="1122" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1122" s="3"/>
-    </row>
-    <row r="1123" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1123" s="3"/>
-    </row>
-    <row r="1124" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1124" s="3"/>
-    </row>
-    <row r="1125" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1125" s="3"/>
-    </row>
-    <row r="1126" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1126" s="3"/>
-    </row>
-    <row r="1127" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1127" s="3"/>
-    </row>
-    <row r="1128" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1128" s="3"/>
-    </row>
-    <row r="1129" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1129" s="3"/>
-    </row>
-    <row r="1130" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1130" s="3"/>
-    </row>
-    <row r="1131" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1131" s="3"/>
-    </row>
-    <row r="1132" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1132" s="3"/>
-    </row>
-    <row r="1133" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1133" s="3"/>
-    </row>
-    <row r="1134" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1134" s="3"/>
-    </row>
-    <row r="1135" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1135" s="3"/>
-    </row>
-    <row r="1136" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1136" s="3"/>
-    </row>
-    <row r="1137" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1137" s="3"/>
-    </row>
-    <row r="1138" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1138" s="3"/>
-    </row>
-    <row r="1139" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1139" s="3"/>
-    </row>
-    <row r="1140" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1140" s="3"/>
-    </row>
-    <row r="1141" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1141" s="3"/>
-    </row>
-    <row r="1142" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1142" s="3"/>
-    </row>
-    <row r="1143" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1143" s="3"/>
-    </row>
-    <row r="1144" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1144" s="3"/>
-    </row>
-    <row r="1145" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1145" s="3"/>
-    </row>
-    <row r="1146" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1146" s="3"/>
-    </row>
-    <row r="1147" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1147" s="3"/>
-    </row>
-    <row r="1148" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1148" s="3"/>
-    </row>
-    <row r="1149" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1149" s="3"/>
-    </row>
-    <row r="1150" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1150" s="3"/>
-    </row>
-    <row r="1151" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1151" s="3"/>
-    </row>
-    <row r="1152" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1152" s="3"/>
-    </row>
-    <row r="1153" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1153" s="3"/>
-    </row>
-    <row r="1154" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1154" s="3"/>
-    </row>
-    <row r="1155" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1155" s="3"/>
-    </row>
-    <row r="1156" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1156" s="3"/>
-    </row>
-    <row r="1157" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1157" s="3"/>
-    </row>
-    <row r="1158" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1158" s="3"/>
-    </row>
-    <row r="1159" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1159" s="3"/>
-    </row>
-    <row r="1160" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1160" s="3"/>
-    </row>
-    <row r="1161" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1161" s="3"/>
-    </row>
-    <row r="1162" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1162" s="3"/>
-    </row>
-    <row r="1163" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1163" s="3"/>
-    </row>
-    <row r="1164" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1164" s="3"/>
-    </row>
-    <row r="1165" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1165" s="3"/>
-    </row>
-    <row r="1166" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1166" s="3"/>
-    </row>
-    <row r="1167" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1167" s="3"/>
-    </row>
-    <row r="1168" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1168" s="3"/>
-    </row>
-    <row r="1169" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1169" s="3"/>
-    </row>
-    <row r="1170" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1170" s="3"/>
-    </row>
-    <row r="1171" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1171" s="3"/>
-    </row>
-    <row r="1172" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1172" s="3"/>
-    </row>
-    <row r="1173" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1173" s="3"/>
-    </row>
-    <row r="1174" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1174" s="3"/>
-    </row>
-    <row r="1175" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1175" s="3"/>
-    </row>
-    <row r="1176" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1176" s="3"/>
-    </row>
-    <row r="1177" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1177" s="3"/>
-    </row>
-    <row r="1178" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1178" s="3"/>
-    </row>
-    <row r="1179" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1179" s="3"/>
-    </row>
-    <row r="1180" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1180" s="3"/>
-    </row>
-    <row r="1181" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1181" s="3"/>
-    </row>
-    <row r="1182" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1182" s="3"/>
-    </row>
-    <row r="1183" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1183" s="3"/>
-    </row>
-    <row r="1184" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1184" s="3"/>
-    </row>
-    <row r="1185" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1185" s="3"/>
-    </row>
-    <row r="1186" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1186" s="3"/>
-    </row>
-    <row r="1187" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1187" s="3"/>
-    </row>
-    <row r="1188" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1188" s="3"/>
-    </row>
-    <row r="1189" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1189" s="3"/>
-    </row>
-    <row r="1190" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1190" s="3"/>
-    </row>
-    <row r="1191" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1191" s="3"/>
-    </row>
-    <row r="1192" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1192" s="3"/>
-    </row>
-    <row r="1193" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1193" s="3"/>
-    </row>
-    <row r="1194" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1194" s="3"/>
-    </row>
-    <row r="1195" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1195" s="3"/>
-    </row>
-    <row r="1196" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1196" s="3"/>
-    </row>
-    <row r="1197" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1197" s="3"/>
-    </row>
-    <row r="1198" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1198" s="3"/>
-    </row>
-    <row r="1199" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1199" s="3"/>
-    </row>
-    <row r="1200" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1200" s="3"/>
-    </row>
-    <row r="1201" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1201" s="3"/>
-    </row>
-    <row r="1202" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1202" s="3"/>
-    </row>
-    <row r="1203" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1203" s="3"/>
-    </row>
-    <row r="1204" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1204" s="3"/>
-    </row>
-    <row r="1205" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1205" s="3"/>
-    </row>
-    <row r="1206" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1206" s="3"/>
-    </row>
-    <row r="1207" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1207" s="3"/>
-    </row>
-    <row r="1208" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1208" s="3"/>
-    </row>
-    <row r="1209" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1209" s="3"/>
-    </row>
-    <row r="1210" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1210" s="3"/>
-    </row>
-    <row r="1211" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1211" s="3"/>
-    </row>
-    <row r="1212" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1212" s="3"/>
-    </row>
-    <row r="1213" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1213" s="3"/>
-    </row>
-    <row r="1214" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1214" s="3"/>
-    </row>
-    <row r="1215" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1215" s="3"/>
-    </row>
-    <row r="1216" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1216" s="3"/>
-    </row>
-    <row r="1217" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1217" s="3"/>
-    </row>
-    <row r="1218" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1218" s="3"/>
-    </row>
-    <row r="1219" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1219" s="3"/>
-    </row>
-    <row r="1220" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1220" s="3"/>
-    </row>
-    <row r="1221" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1221" s="3"/>
-    </row>
-    <row r="1222" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F1222" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/uploads/Lion_Bid_Extract.xlsx
+++ b/uploads/Lion_Bid_Extract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9810F1D7-F056-474D-9564-C09BCC30457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407A4C41-583A-4CD1-93EC-93A80A501187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="990">
   <si>
     <t>Item Number</t>
   </si>
@@ -2212,9 +2212,6 @@
     <t>3/4X10 3/4X10 CPVC PIPE</t>
   </si>
   <si>
-    <t>1/2X10 1/2X10 CPVC PIPE</t>
-  </si>
-  <si>
     <t>6.3900</t>
   </si>
   <si>
@@ -2815,9 +2812,6 @@
     <t>48553DEMO</t>
   </si>
   <si>
-    <t>#9 MEGAPRESS JAW 1/2-2 RENTAL</t>
-  </si>
-  <si>
     <t>3000.0000</t>
   </si>
   <si>
@@ -2896,9 +2890,6 @@
     <t>308773.</t>
   </si>
   <si>
-    <t>1X10FT LENGTH L HARD COPPER *PICK UNITS 10 EA /LTH*</t>
-  </si>
-  <si>
     <t>66.0000</t>
   </si>
   <si>
@@ -2914,9 +2905,6 @@
     <t>308761.</t>
   </si>
   <si>
-    <t>1/2X20FT LENGTH L HARD COPPER *PICK UNITS 20 EA /LTH*</t>
-  </si>
-  <si>
     <t>55.0000</t>
   </si>
   <si>
@@ -2980,9 +2968,6 @@
     <t>10/02/25</t>
   </si>
   <si>
-    <t>6X6X3 HXHXH PVCDWV WYE  EA 7 4</t>
-  </si>
-  <si>
     <t>10/09/25</t>
   </si>
   <si>
@@ -2995,7 +2980,16 @@
     <t>10/30/25</t>
   </si>
   <si>
-    <t>3/4X10FT LENGTH L HARD COPPER *PICK UNITS 10 EA /LTH*</t>
+    <t xml:space="preserve"> MGAPRESS JAW 1/2-2 RENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2X20FT LENGTH L HARD COPPER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X10FT LENGTH L HARD COPPER </t>
+  </si>
+  <si>
+    <t>3/4X10FT LENGTH L HARD COPPER</t>
   </si>
 </sst>
 </file>
@@ -3436,14 +3430,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F968"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F193" sqref="F192:F193"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.54296875" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" customWidth="1"/>
     <col min="4" max="4" width="6.36328125" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" customWidth="1"/>
@@ -3472,22 +3466,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C2" t="s">
         <v>930</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" t="s">
         <v>931</v>
       </c>
-      <c r="C2" t="s">
-        <v>932</v>
-      </c>
-      <c r="D2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" t="s">
-        <v>933</v>
-      </c>
       <c r="F2" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3527,7 +3521,7 @@
         <v>637</v>
       </c>
       <c r="F4" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3544,10 +3538,10 @@
         <v>461</v>
       </c>
       <c r="E5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3555,7 +3549,7 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C6" t="s">
         <v>412</v>
@@ -3564,10 +3558,10 @@
         <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F6" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3595,7 +3589,7 @@
         <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C8" t="s">
         <v>412</v>
@@ -3627,7 +3621,7 @@
         <v>637</v>
       </c>
       <c r="F9" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3647,7 +3641,7 @@
         <v>637</v>
       </c>
       <c r="F10" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -3667,7 +3661,7 @@
         <v>637</v>
       </c>
       <c r="F11" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -3687,7 +3681,7 @@
         <v>637</v>
       </c>
       <c r="F12" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -3707,7 +3701,7 @@
         <v>637</v>
       </c>
       <c r="F13" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3807,7 +3801,7 @@
         <v>624</v>
       </c>
       <c r="F18" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -3847,7 +3841,7 @@
         <v>557</v>
       </c>
       <c r="F20" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -3927,27 +3921,27 @@
         <v>637</v>
       </c>
       <c r="F24" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>869</v>
+      </c>
+      <c r="B25" t="s">
         <v>870</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>871</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E25" t="s">
         <v>872</v>
       </c>
-      <c r="D25" t="s">
-        <v>461</v>
-      </c>
-      <c r="E25" t="s">
-        <v>873</v>
-      </c>
       <c r="F25" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -3967,7 +3961,7 @@
         <v>557</v>
       </c>
       <c r="F26" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -3987,7 +3981,7 @@
         <v>637</v>
       </c>
       <c r="F27" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -4007,7 +4001,7 @@
         <v>637</v>
       </c>
       <c r="F28" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -4018,16 +4012,16 @@
         <v>657</v>
       </c>
       <c r="C29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D29" t="s">
         <v>461</v>
       </c>
       <c r="E29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F29" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -4047,7 +4041,7 @@
         <v>637</v>
       </c>
       <c r="F30" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -4067,7 +4061,7 @@
         <v>637</v>
       </c>
       <c r="F31" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -4078,36 +4072,36 @@
         <v>660</v>
       </c>
       <c r="C32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D32" t="s">
         <v>461</v>
       </c>
       <c r="E32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F32" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>877</v>
+      </c>
+      <c r="B33" t="s">
         <v>878</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>879</v>
       </c>
-      <c r="C33" t="s">
-        <v>880</v>
-      </c>
       <c r="D33" t="s">
         <v>461</v>
       </c>
       <c r="E33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F33" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4127,7 +4121,7 @@
         <v>637</v>
       </c>
       <c r="F34" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -4147,7 +4141,7 @@
         <v>637</v>
       </c>
       <c r="F35" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -4158,16 +4152,16 @@
         <v>675</v>
       </c>
       <c r="C36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D36" t="s">
         <v>461</v>
       </c>
       <c r="E36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F36" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -4195,7 +4189,7 @@
         <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C38" t="s">
         <v>588</v>
@@ -4207,7 +4201,7 @@
         <v>557</v>
       </c>
       <c r="F38" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -4227,7 +4221,7 @@
         <v>557</v>
       </c>
       <c r="F39" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -4247,7 +4241,7 @@
         <v>557</v>
       </c>
       <c r="F40" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4284,10 +4278,10 @@
         <v>461</v>
       </c>
       <c r="E42" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F42" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -4347,7 +4341,7 @@
         <v>557</v>
       </c>
       <c r="F45" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -4378,16 +4372,16 @@
         <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D47" t="s">
         <v>461</v>
       </c>
       <c r="E47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F47" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -4427,7 +4421,7 @@
         <v>557</v>
       </c>
       <c r="F49" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -4452,22 +4446,22 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>923</v>
+      </c>
+      <c r="B51" t="s">
         <v>924</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>925</v>
       </c>
-      <c r="C51" t="s">
-        <v>926</v>
-      </c>
       <c r="D51" t="s">
         <v>461</v>
       </c>
       <c r="E51" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F51" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -4475,7 +4469,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>730</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
         <v>418</v>
@@ -4487,7 +4481,7 @@
         <v>726</v>
       </c>
       <c r="F52" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -4495,7 +4489,7 @@
         <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>730</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
         <v>418</v>
@@ -4504,10 +4498,10 @@
         <v>461</v>
       </c>
       <c r="E53" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F53" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -4515,7 +4509,7 @@
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>730</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
         <v>418</v>
@@ -4524,10 +4518,10 @@
         <v>461</v>
       </c>
       <c r="E54" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F54" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -4552,22 +4546,22 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B56" t="s">
-        <v>964</v>
+        <v>987</v>
       </c>
       <c r="C56" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D56" t="s">
         <v>468</v>
       </c>
       <c r="E56" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F56" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -4692,62 +4686,62 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>853</v>
+      </c>
+      <c r="B63" t="s">
         <v>854</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>855</v>
       </c>
-      <c r="C63" t="s">
-        <v>856</v>
-      </c>
       <c r="D63" t="s">
         <v>461</v>
       </c>
       <c r="E63" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F63" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>856</v>
+      </c>
+      <c r="B64" t="s">
         <v>857</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>858</v>
       </c>
-      <c r="C64" t="s">
-        <v>859</v>
-      </c>
       <c r="D64" t="s">
         <v>461</v>
       </c>
       <c r="E64" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F64" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>850</v>
+      </c>
+      <c r="B65" t="s">
         <v>851</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>852</v>
       </c>
-      <c r="C65" t="s">
-        <v>853</v>
-      </c>
       <c r="D65" t="s">
         <v>461</v>
       </c>
       <c r="E65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F65" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -4767,7 +4761,7 @@
         <v>726</v>
       </c>
       <c r="F66" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -4787,7 +4781,7 @@
         <v>557</v>
       </c>
       <c r="F67" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -4867,7 +4861,7 @@
         <v>624</v>
       </c>
       <c r="F71" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -4887,7 +4881,7 @@
         <v>637</v>
       </c>
       <c r="F72" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -4947,7 +4941,7 @@
         <v>624</v>
       </c>
       <c r="F75" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -5132,22 +5126,22 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>846</v>
+      </c>
+      <c r="B85" t="s">
+        <v>977</v>
+      </c>
+      <c r="C85" t="s">
         <v>847</v>
       </c>
-      <c r="B85" t="s">
-        <v>981</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>848</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>849</v>
       </c>
-      <c r="E85" t="s">
-        <v>850</v>
-      </c>
       <c r="F85" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -5167,7 +5161,7 @@
         <v>637</v>
       </c>
       <c r="F86" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5307,7 +5301,7 @@
         <v>726</v>
       </c>
       <c r="F93" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -5324,10 +5318,10 @@
         <v>461</v>
       </c>
       <c r="E94" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F94" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -5338,16 +5332,16 @@
         <v>725</v>
       </c>
       <c r="C95" t="s">
+        <v>897</v>
+      </c>
+      <c r="D95" t="s">
+        <v>461</v>
+      </c>
+      <c r="E95" t="s">
         <v>898</v>
       </c>
-      <c r="D95" t="s">
-        <v>461</v>
-      </c>
-      <c r="E95" t="s">
-        <v>899</v>
-      </c>
       <c r="F95" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -5372,130 +5366,130 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>788</v>
+      </c>
+      <c r="B97" t="s">
         <v>789</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>790</v>
       </c>
-      <c r="C97" t="s">
-        <v>791</v>
-      </c>
       <c r="D97" t="s">
         <v>461</v>
       </c>
       <c r="E97" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F97" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>791</v>
+      </c>
+      <c r="B98" t="s">
         <v>792</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>793</v>
       </c>
-      <c r="C98" t="s">
-        <v>794</v>
-      </c>
       <c r="D98" t="s">
         <v>461</v>
       </c>
       <c r="E98" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F98" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>794</v>
+      </c>
+      <c r="B99" t="s">
         <v>795</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>796</v>
       </c>
-      <c r="C99" t="s">
-        <v>797</v>
-      </c>
       <c r="D99" t="s">
         <v>461</v>
       </c>
       <c r="E99" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F99" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>785</v>
+      </c>
+      <c r="B100" t="s">
         <v>786</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>787</v>
       </c>
-      <c r="C100" t="s">
-        <v>788</v>
-      </c>
       <c r="D100" t="s">
         <v>461</v>
       </c>
       <c r="E100" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F100" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>764</v>
+      </c>
+      <c r="B101" t="s">
         <v>765</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>766</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>767</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>768</v>
       </c>
-      <c r="E101" t="s">
-        <v>769</v>
-      </c>
       <c r="F101" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>764</v>
+      </c>
+      <c r="B102" t="s">
         <v>765</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>766</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>767</v>
       </c>
-      <c r="D102" t="s">
-        <v>768</v>
-      </c>
       <c r="E102" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F102" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B103" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C103" t="s">
         <v>616</v>
@@ -5504,90 +5498,90 @@
         <v>461</v>
       </c>
       <c r="E103" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F103" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>750</v>
+      </c>
+      <c r="B104" t="s">
         <v>751</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>752</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>461</v>
+      </c>
+      <c r="E104" t="s">
         <v>753</v>
       </c>
-      <c r="D104" t="s">
-        <v>461</v>
-      </c>
-      <c r="E104" t="s">
-        <v>754</v>
-      </c>
       <c r="F104" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>750</v>
+      </c>
+      <c r="B105" t="s">
         <v>751</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>752</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>461</v>
+      </c>
+      <c r="E105" t="s">
         <v>753</v>
       </c>
-      <c r="D105" t="s">
-        <v>461</v>
-      </c>
-      <c r="E105" t="s">
-        <v>754</v>
-      </c>
       <c r="F105" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>757</v>
+      </c>
+      <c r="B106" t="s">
         <v>758</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>759</v>
       </c>
-      <c r="C106" t="s">
-        <v>760</v>
-      </c>
       <c r="D106" t="s">
         <v>461</v>
       </c>
       <c r="E106" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F106" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>757</v>
+      </c>
+      <c r="B107" t="s">
         <v>758</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>759</v>
       </c>
-      <c r="C107" t="s">
-        <v>760</v>
-      </c>
       <c r="D107" t="s">
         <v>461</v>
       </c>
       <c r="E107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F107" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -5607,7 +5601,7 @@
         <v>637</v>
       </c>
       <c r="F108" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -5635,7 +5629,7 @@
         <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C110" t="s">
         <v>458</v>
@@ -5644,10 +5638,10 @@
         <v>728</v>
       </c>
       <c r="E110" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F110" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -5684,10 +5678,10 @@
         <v>461</v>
       </c>
       <c r="E112" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F112" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -5724,10 +5718,10 @@
         <v>461</v>
       </c>
       <c r="E114" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F114" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -5775,7 +5769,7 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C117" t="s">
         <v>433</v>
@@ -5784,10 +5778,10 @@
         <v>728</v>
       </c>
       <c r="E117" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F117" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -5804,10 +5798,10 @@
         <v>461</v>
       </c>
       <c r="E118" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F118" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -5867,7 +5861,7 @@
         <v>637</v>
       </c>
       <c r="F121" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -5932,122 +5926,122 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>800</v>
+      </c>
+      <c r="B125" t="s">
         <v>801</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>802</v>
       </c>
-      <c r="C125" t="s">
-        <v>803</v>
-      </c>
       <c r="D125" t="s">
         <v>461</v>
       </c>
       <c r="E125" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>800</v>
+      </c>
+      <c r="B126" t="s">
         <v>801</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>802</v>
       </c>
-      <c r="C126" t="s">
-        <v>803</v>
-      </c>
       <c r="D126" t="s">
         <v>461</v>
       </c>
       <c r="E126" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F126" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>800</v>
+      </c>
+      <c r="B127" t="s">
         <v>801</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>802</v>
       </c>
-      <c r="C127" t="s">
-        <v>803</v>
-      </c>
       <c r="D127" t="s">
         <v>461</v>
       </c>
       <c r="E127" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F127" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>797</v>
+      </c>
+      <c r="B128" t="s">
         <v>798</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>799</v>
       </c>
-      <c r="C128" t="s">
-        <v>800</v>
-      </c>
       <c r="D128" t="s">
         <v>461</v>
       </c>
       <c r="E128" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F128" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>937</v>
+      </c>
+      <c r="B129" t="s">
+        <v>938</v>
+      </c>
+      <c r="C129" t="s">
         <v>939</v>
       </c>
-      <c r="B129" t="s">
-        <v>940</v>
-      </c>
-      <c r="C129" t="s">
-        <v>941</v>
-      </c>
       <c r="D129" t="s">
         <v>461</v>
       </c>
       <c r="E129" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F129" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>803</v>
+      </c>
+      <c r="B130" t="s">
         <v>804</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>805</v>
       </c>
-      <c r="C130" t="s">
-        <v>806</v>
-      </c>
       <c r="D130" t="s">
         <v>461</v>
       </c>
       <c r="E130" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F130" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -6072,22 +6066,22 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>900</v>
+      </c>
+      <c r="B132" t="s">
         <v>901</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>902</v>
       </c>
-      <c r="C132" t="s">
-        <v>903</v>
-      </c>
       <c r="D132" t="s">
         <v>461</v>
       </c>
       <c r="E132" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F132" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -6135,7 +6129,7 @@
         <v>110</v>
       </c>
       <c r="B135" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C135" t="s">
         <v>416</v>
@@ -6144,10 +6138,10 @@
         <v>461</v>
       </c>
       <c r="E135" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F135" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -6155,19 +6149,19 @@
         <v>110</v>
       </c>
       <c r="B136" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C136" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D136" t="s">
         <v>461</v>
       </c>
       <c r="E136" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F136" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -6187,7 +6181,7 @@
         <v>726</v>
       </c>
       <c r="F137" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -6212,22 +6206,22 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B139" t="s">
-        <v>958</v>
+        <v>988</v>
       </c>
       <c r="C139" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D139" t="s">
         <v>468</v>
       </c>
       <c r="E139" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F139" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -6307,7 +6301,7 @@
         <v>637</v>
       </c>
       <c r="F143" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -6427,7 +6421,7 @@
         <v>726</v>
       </c>
       <c r="F149" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -6444,10 +6438,10 @@
         <v>461</v>
       </c>
       <c r="E150" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F150" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -6484,10 +6478,10 @@
         <v>461</v>
       </c>
       <c r="E152" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F152" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -6507,7 +6501,7 @@
         <v>557</v>
       </c>
       <c r="F153" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -6564,10 +6558,10 @@
         <v>461</v>
       </c>
       <c r="E156" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F156" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -6587,7 +6581,7 @@
         <v>557</v>
       </c>
       <c r="F157" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -6612,13 +6606,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>740</v>
+      </c>
+      <c r="B159" t="s">
         <v>741</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>742</v>
-      </c>
-      <c r="C159" t="s">
-        <v>743</v>
       </c>
       <c r="D159" t="s">
         <v>461</v>
@@ -6627,27 +6621,27 @@
         <v>726</v>
       </c>
       <c r="F159" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>740</v>
+      </c>
+      <c r="B160" t="s">
         <v>741</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>742</v>
       </c>
-      <c r="C160" t="s">
-        <v>743</v>
-      </c>
       <c r="D160" t="s">
         <v>461</v>
       </c>
       <c r="E160" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F160" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -6687,7 +6681,7 @@
         <v>726</v>
       </c>
       <c r="F162" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -6707,7 +6701,7 @@
         <v>557</v>
       </c>
       <c r="F163" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -6747,7 +6741,7 @@
         <v>726</v>
       </c>
       <c r="F165" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -6764,10 +6758,10 @@
         <v>461</v>
       </c>
       <c r="E166" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F166" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -6832,22 +6826,22 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>817</v>
+      </c>
+      <c r="B170" t="s">
         <v>818</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>819</v>
       </c>
-      <c r="C170" t="s">
-        <v>820</v>
-      </c>
       <c r="D170" t="s">
         <v>461</v>
       </c>
       <c r="E170" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F170" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -6867,7 +6861,7 @@
         <v>726</v>
       </c>
       <c r="F171" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -6887,7 +6881,7 @@
         <v>557</v>
       </c>
       <c r="F172" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -6932,42 +6926,42 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>829</v>
+      </c>
+      <c r="B175" t="s">
         <v>830</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>831</v>
       </c>
-      <c r="C175" t="s">
-        <v>832</v>
-      </c>
       <c r="D175" t="s">
         <v>461</v>
       </c>
       <c r="E175" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F175" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>826</v>
+      </c>
+      <c r="B176" t="s">
         <v>827</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>828</v>
       </c>
-      <c r="C176" t="s">
-        <v>829</v>
-      </c>
       <c r="D176" t="s">
         <v>461</v>
       </c>
       <c r="E176" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F176" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -6984,10 +6978,10 @@
         <v>461</v>
       </c>
       <c r="E177" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F177" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -7004,10 +6998,10 @@
         <v>461</v>
       </c>
       <c r="E178" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F178" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -7027,7 +7021,7 @@
         <v>557</v>
       </c>
       <c r="F179" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -7067,7 +7061,7 @@
         <v>726</v>
       </c>
       <c r="F181" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -7084,10 +7078,10 @@
         <v>461</v>
       </c>
       <c r="E182" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F182" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -7127,7 +7121,7 @@
         <v>726</v>
       </c>
       <c r="F184" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -7147,7 +7141,7 @@
         <v>557</v>
       </c>
       <c r="F185" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -7167,27 +7161,27 @@
         <v>637</v>
       </c>
       <c r="F186" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>782</v>
+      </c>
+      <c r="B187" t="s">
         <v>783</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>784</v>
       </c>
-      <c r="C187" t="s">
-        <v>785</v>
-      </c>
       <c r="D187" t="s">
         <v>461</v>
       </c>
       <c r="E187" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F187" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -7207,7 +7201,7 @@
         <v>726</v>
       </c>
       <c r="F188" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -7232,22 +7226,22 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>835</v>
+      </c>
+      <c r="B190" t="s">
         <v>836</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>837</v>
       </c>
-      <c r="C190" t="s">
-        <v>838</v>
-      </c>
       <c r="D190" t="s">
         <v>461</v>
       </c>
       <c r="E190" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F190" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -7292,62 +7286,62 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>952</v>
+      </c>
+      <c r="B193" t="s">
+        <v>953</v>
+      </c>
+      <c r="C193" t="s">
         <v>954</v>
       </c>
-      <c r="B193" t="s">
-        <v>955</v>
-      </c>
-      <c r="C193" t="s">
-        <v>956</v>
-      </c>
       <c r="D193" t="s">
         <v>461</v>
       </c>
       <c r="E193" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F193" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>949</v>
+      </c>
+      <c r="B194" t="s">
+        <v>950</v>
+      </c>
+      <c r="C194" t="s">
         <v>951</v>
       </c>
-      <c r="B194" t="s">
-        <v>952</v>
-      </c>
-      <c r="C194" t="s">
-        <v>953</v>
-      </c>
       <c r="D194" t="s">
         <v>461</v>
       </c>
       <c r="E194" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F194" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>810</v>
+      </c>
+      <c r="B195" t="s">
         <v>811</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>812</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>461</v>
+      </c>
+      <c r="E195" t="s">
         <v>813</v>
       </c>
-      <c r="D195" t="s">
-        <v>461</v>
-      </c>
-      <c r="E195" t="s">
-        <v>814</v>
-      </c>
       <c r="F195" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -7358,16 +7352,16 @@
         <v>228</v>
       </c>
       <c r="C196" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D196" t="s">
         <v>461</v>
       </c>
       <c r="E196" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F196" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -7507,7 +7501,7 @@
         <v>726</v>
       </c>
       <c r="F203" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -7527,7 +7521,7 @@
         <v>557</v>
       </c>
       <c r="F204" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -7612,22 +7606,22 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
+        <v>906</v>
+      </c>
+      <c r="B209" t="s">
         <v>907</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>908</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>461</v>
+      </c>
+      <c r="E209" t="s">
         <v>909</v>
       </c>
-      <c r="D209" t="s">
-        <v>461</v>
-      </c>
-      <c r="E209" t="s">
-        <v>910</v>
-      </c>
       <c r="F209" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -7664,10 +7658,10 @@
         <v>461</v>
       </c>
       <c r="E211" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F211" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -7704,10 +7698,10 @@
         <v>461</v>
       </c>
       <c r="E213" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F213" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -7764,10 +7758,10 @@
         <v>461</v>
       </c>
       <c r="E216" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F216" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -7787,7 +7781,7 @@
         <v>557</v>
       </c>
       <c r="F217" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -7864,10 +7858,10 @@
         <v>461</v>
       </c>
       <c r="E221" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F221" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -7887,7 +7881,7 @@
         <v>557</v>
       </c>
       <c r="F222" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -7932,22 +7926,22 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>820</v>
+      </c>
+      <c r="B225" t="s">
         <v>821</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>822</v>
       </c>
-      <c r="C225" t="s">
-        <v>823</v>
-      </c>
       <c r="D225" t="s">
         <v>461</v>
       </c>
       <c r="E225" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F225" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -7967,7 +7961,7 @@
         <v>557</v>
       </c>
       <c r="F226" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -7992,22 +7986,22 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>832</v>
+      </c>
+      <c r="B228" t="s">
         <v>833</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>834</v>
       </c>
-      <c r="C228" t="s">
-        <v>835</v>
-      </c>
       <c r="D228" t="s">
         <v>461</v>
       </c>
       <c r="E228" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F228" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
@@ -8027,47 +8021,47 @@
         <v>604</v>
       </c>
       <c r="F229" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>892</v>
+      </c>
+      <c r="B230" t="s">
         <v>893</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>894</v>
       </c>
-      <c r="C230" t="s">
-        <v>895</v>
-      </c>
       <c r="D230" t="s">
         <v>461</v>
       </c>
       <c r="E230" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F230" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>892</v>
+      </c>
+      <c r="B231" t="s">
         <v>893</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>894</v>
       </c>
-      <c r="C231" t="s">
-        <v>895</v>
-      </c>
       <c r="D231" t="s">
         <v>461</v>
       </c>
       <c r="E231" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F231" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -8107,47 +8101,47 @@
         <v>637</v>
       </c>
       <c r="F233" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>779</v>
+      </c>
+      <c r="B234" t="s">
         <v>780</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>781</v>
       </c>
-      <c r="C234" t="s">
-        <v>782</v>
-      </c>
       <c r="D234" t="s">
         <v>461</v>
       </c>
       <c r="E234" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F234" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B235" t="s">
+        <v>838</v>
+      </c>
+      <c r="C235" t="s">
         <v>839</v>
       </c>
-      <c r="C235" t="s">
-        <v>840</v>
-      </c>
       <c r="D235" t="s">
         <v>461</v>
       </c>
       <c r="E235" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F235" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -8155,7 +8149,7 @@
         <v>554</v>
       </c>
       <c r="B236" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C236" t="s">
         <v>555</v>
@@ -8172,22 +8166,22 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>920</v>
+      </c>
+      <c r="B237" t="s">
         <v>921</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>922</v>
       </c>
-      <c r="C237" t="s">
-        <v>923</v>
-      </c>
       <c r="D237" t="s">
         <v>461</v>
       </c>
       <c r="E237" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F237" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -8207,7 +8201,7 @@
         <v>557</v>
       </c>
       <c r="F238" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -8247,7 +8241,7 @@
         <v>637</v>
       </c>
       <c r="F240" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -8264,10 +8258,10 @@
         <v>461</v>
       </c>
       <c r="E241" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F241" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -8287,27 +8281,27 @@
         <v>637</v>
       </c>
       <c r="F242" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
+        <v>881</v>
+      </c>
+      <c r="B243" t="s">
         <v>882</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>883</v>
       </c>
-      <c r="C243" t="s">
-        <v>884</v>
-      </c>
       <c r="D243" t="s">
         <v>461</v>
       </c>
       <c r="E243" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F243" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
@@ -8327,7 +8321,7 @@
         <v>637</v>
       </c>
       <c r="F244" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -8347,7 +8341,7 @@
         <v>637</v>
       </c>
       <c r="F245" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -8358,76 +8352,76 @@
         <v>705</v>
       </c>
       <c r="C246" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D246" t="s">
         <v>461</v>
       </c>
       <c r="E246" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F246" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>885</v>
+      </c>
+      <c r="B247" t="s">
         <v>886</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>887</v>
       </c>
-      <c r="C247" t="s">
-        <v>888</v>
-      </c>
       <c r="D247" t="s">
         <v>461</v>
       </c>
       <c r="E247" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F247" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
+        <v>754</v>
+      </c>
+      <c r="B248" t="s">
         <v>755</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>756</v>
       </c>
-      <c r="C248" t="s">
-        <v>757</v>
-      </c>
       <c r="D248" t="s">
         <v>461</v>
       </c>
       <c r="E248" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F248" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
+        <v>754</v>
+      </c>
+      <c r="B249" t="s">
         <v>755</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>756</v>
       </c>
-      <c r="C249" t="s">
-        <v>757</v>
-      </c>
       <c r="D249" t="s">
         <v>461</v>
       </c>
       <c r="E249" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F249" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -8447,7 +8441,7 @@
         <v>637</v>
       </c>
       <c r="F250" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -8458,16 +8452,16 @@
         <v>645</v>
       </c>
       <c r="C251" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D251" t="s">
         <v>461</v>
       </c>
       <c r="E251" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F251" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -8507,7 +8501,7 @@
         <v>557</v>
       </c>
       <c r="F253" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -8532,22 +8526,22 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
+        <v>888</v>
+      </c>
+      <c r="B255" t="s">
         <v>889</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>890</v>
       </c>
-      <c r="C255" t="s">
-        <v>891</v>
-      </c>
       <c r="D255" t="s">
         <v>461</v>
       </c>
       <c r="E255" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F255" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -8607,7 +8601,7 @@
         <v>557</v>
       </c>
       <c r="F258" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -8667,7 +8661,7 @@
         <v>637</v>
       </c>
       <c r="F261" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -8678,16 +8672,16 @@
         <v>648</v>
       </c>
       <c r="C262" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D262" t="s">
         <v>461</v>
       </c>
       <c r="E262" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F262" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -8727,7 +8721,7 @@
         <v>637</v>
       </c>
       <c r="F264" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -8747,7 +8741,7 @@
         <v>637</v>
       </c>
       <c r="F265" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -8767,7 +8761,7 @@
         <v>726</v>
       </c>
       <c r="F266" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -8812,22 +8806,22 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B269" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C269" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D269" t="s">
         <v>468</v>
       </c>
       <c r="E269" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F269" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -8887,7 +8881,7 @@
         <v>637</v>
       </c>
       <c r="F272" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -8992,22 +8986,22 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>772</v>
+      </c>
+      <c r="B278" t="s">
         <v>773</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>774</v>
       </c>
-      <c r="C278" t="s">
-        <v>775</v>
-      </c>
       <c r="D278" t="s">
         <v>461</v>
       </c>
       <c r="E278" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F278" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -9027,7 +9021,7 @@
         <v>624</v>
       </c>
       <c r="F279" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -9072,22 +9066,22 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>814</v>
+      </c>
+      <c r="B282" t="s">
         <v>815</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>816</v>
       </c>
-      <c r="C282" t="s">
-        <v>817</v>
-      </c>
       <c r="D282" t="s">
         <v>461</v>
       </c>
       <c r="E282" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F282" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -9107,47 +9101,47 @@
         <v>604</v>
       </c>
       <c r="F283" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>823</v>
+      </c>
+      <c r="B284" t="s">
         <v>824</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>825</v>
       </c>
-      <c r="C284" t="s">
-        <v>826</v>
-      </c>
       <c r="D284" t="s">
         <v>461</v>
       </c>
       <c r="E284" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F284" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
+        <v>840</v>
+      </c>
+      <c r="B285" t="s">
         <v>841</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>842</v>
       </c>
-      <c r="C285" t="s">
-        <v>843</v>
-      </c>
       <c r="D285" t="s">
         <v>461</v>
       </c>
       <c r="E285" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F285" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -9164,10 +9158,10 @@
         <v>461</v>
       </c>
       <c r="E286" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F286" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -9227,7 +9221,7 @@
         <v>726</v>
       </c>
       <c r="F289" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -9244,10 +9238,10 @@
         <v>461</v>
       </c>
       <c r="E290" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F290" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -9267,7 +9261,7 @@
         <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -9344,10 +9338,10 @@
         <v>461</v>
       </c>
       <c r="E295" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F295" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
@@ -9367,7 +9361,7 @@
         <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
@@ -9504,10 +9498,10 @@
         <v>461</v>
       </c>
       <c r="E303" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F303" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -9544,10 +9538,10 @@
         <v>461</v>
       </c>
       <c r="E305" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F305" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -9664,10 +9658,10 @@
         <v>461</v>
       </c>
       <c r="E311" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F311" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -9727,7 +9721,7 @@
         <v>726</v>
       </c>
       <c r="F314" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
@@ -9787,7 +9781,7 @@
         <v>726</v>
       </c>
       <c r="F317" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -9804,10 +9798,10 @@
         <v>461</v>
       </c>
       <c r="E318" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F318" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
@@ -9824,10 +9818,10 @@
         <v>461</v>
       </c>
       <c r="E319" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F319" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
@@ -9844,10 +9838,10 @@
         <v>461</v>
       </c>
       <c r="E320" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F320" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -9927,18 +9921,18 @@
         <v>637</v>
       </c>
       <c r="F324" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
+        <v>746</v>
+      </c>
+      <c r="B325" t="s">
         <v>747</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>748</v>
-      </c>
-      <c r="C325" t="s">
-        <v>749</v>
       </c>
       <c r="D325" t="s">
         <v>461</v>
@@ -9947,27 +9941,27 @@
         <v>726</v>
       </c>
       <c r="F325" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
+        <v>746</v>
+      </c>
+      <c r="B326" t="s">
         <v>747</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>748</v>
       </c>
-      <c r="C326" t="s">
-        <v>749</v>
-      </c>
       <c r="D326" t="s">
         <v>461</v>
       </c>
       <c r="E326" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F326" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
@@ -10047,7 +10041,7 @@
         <v>604</v>
       </c>
       <c r="F330" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10087,7 +10081,7 @@
         <v>604</v>
       </c>
       <c r="F332" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
@@ -10112,22 +10106,22 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
+        <v>775</v>
+      </c>
+      <c r="B334" t="s">
         <v>776</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>777</v>
       </c>
-      <c r="C334" t="s">
-        <v>778</v>
-      </c>
       <c r="D334" t="s">
         <v>461</v>
       </c>
       <c r="E334" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F334" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10144,10 +10138,10 @@
         <v>461</v>
       </c>
       <c r="E335" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F335" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
@@ -10164,10 +10158,10 @@
         <v>461</v>
       </c>
       <c r="E336" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F336" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
@@ -10204,10 +10198,10 @@
         <v>461</v>
       </c>
       <c r="E338" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F338" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
@@ -10244,10 +10238,10 @@
         <v>461</v>
       </c>
       <c r="E340" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F340" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
@@ -10264,10 +10258,10 @@
         <v>461</v>
       </c>
       <c r="E341" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F341" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
@@ -10355,7 +10349,7 @@
         <v>19</v>
       </c>
       <c r="B346" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C346" t="s">
         <v>322</v>
@@ -10364,10 +10358,10 @@
         <v>461</v>
       </c>
       <c r="E346" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F346" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -10427,7 +10421,7 @@
         <v>604</v>
       </c>
       <c r="F349" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
@@ -10444,10 +10438,10 @@
         <v>461</v>
       </c>
       <c r="E350" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F350" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
@@ -10564,10 +10558,10 @@
         <v>461</v>
       </c>
       <c r="E356" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F356" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
@@ -10684,10 +10678,10 @@
         <v>461</v>
       </c>
       <c r="E362" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F362" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
@@ -10724,10 +10718,10 @@
         <v>461</v>
       </c>
       <c r="E364" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F364" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -10744,10 +10738,10 @@
         <v>461</v>
       </c>
       <c r="E365" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F365" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
@@ -10764,10 +10758,10 @@
         <v>461</v>
       </c>
       <c r="E366" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F366" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
@@ -10824,10 +10818,10 @@
         <v>461</v>
       </c>
       <c r="E369" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F369" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
@@ -10855,7 +10849,7 @@
         <v>46</v>
       </c>
       <c r="B371" t="s">
-        <v>986</v>
+        <v>195</v>
       </c>
       <c r="C371" t="s">
         <v>348</v>
@@ -10864,10 +10858,10 @@
         <v>728</v>
       </c>
       <c r="E371" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F371" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
@@ -10884,10 +10878,10 @@
         <v>461</v>
       </c>
       <c r="E372" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F372" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
@@ -10904,10 +10898,10 @@
         <v>461</v>
       </c>
       <c r="E373" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F373" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
@@ -10972,22 +10966,22 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
+        <v>807</v>
+      </c>
+      <c r="B377" t="s">
         <v>808</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>809</v>
       </c>
-      <c r="C377" t="s">
-        <v>810</v>
-      </c>
       <c r="D377" t="s">
         <v>461</v>
       </c>
       <c r="E377" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F377" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
@@ -11024,15 +11018,15 @@
         <v>461</v>
       </c>
       <c r="E379" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F379" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B380" t="s">
         <v>186</v>
@@ -11044,10 +11038,10 @@
         <v>461</v>
       </c>
       <c r="E380" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F380" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
@@ -11084,10 +11078,10 @@
         <v>461</v>
       </c>
       <c r="E382" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F382" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
@@ -11112,22 +11106,22 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
+        <v>866</v>
+      </c>
+      <c r="B384" t="s">
         <v>867</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
         <v>868</v>
       </c>
-      <c r="C384" t="s">
-        <v>869</v>
-      </c>
       <c r="D384" t="s">
         <v>461</v>
       </c>
       <c r="E384" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F384" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
@@ -11167,27 +11161,27 @@
         <v>557</v>
       </c>
       <c r="F386" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
+        <v>859</v>
+      </c>
+      <c r="B387" t="s">
         <v>860</v>
       </c>
-      <c r="B387" t="s">
+      <c r="C387" t="s">
         <v>861</v>
       </c>
-      <c r="C387" t="s">
+      <c r="D387" t="s">
+        <v>461</v>
+      </c>
+      <c r="E387" t="s">
         <v>862</v>
       </c>
-      <c r="D387" t="s">
-        <v>461</v>
-      </c>
-      <c r="E387" t="s">
-        <v>863</v>
-      </c>
       <c r="F387" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
@@ -11204,10 +11198,10 @@
         <v>461</v>
       </c>
       <c r="E388" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F388" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
@@ -11244,10 +11238,10 @@
         <v>461</v>
       </c>
       <c r="E390" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F390" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
@@ -11287,7 +11281,7 @@
         <v>557</v>
       </c>
       <c r="F392" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
@@ -11335,7 +11329,7 @@
         <v>107</v>
       </c>
       <c r="B395" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C395" t="s">
         <v>411</v>
@@ -11347,7 +11341,7 @@
         <v>726</v>
       </c>
       <c r="F395" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
@@ -11355,7 +11349,7 @@
         <v>107</v>
       </c>
       <c r="B396" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C396" t="s">
         <v>411</v>
@@ -11364,10 +11358,10 @@
         <v>461</v>
       </c>
       <c r="E396" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F396" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
@@ -11392,42 +11386,42 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
+        <v>769</v>
+      </c>
+      <c r="B398" t="s">
         <v>770</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>771</v>
       </c>
-      <c r="C398" t="s">
-        <v>772</v>
-      </c>
       <c r="D398" t="s">
         <v>461</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F398" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
+        <v>910</v>
+      </c>
+      <c r="B399" t="s">
         <v>911</v>
       </c>
-      <c r="B399" t="s">
+      <c r="C399" t="s">
         <v>912</v>
       </c>
-      <c r="C399" t="s">
-        <v>913</v>
-      </c>
       <c r="D399" t="s">
         <v>461</v>
       </c>
       <c r="E399" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F399" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
@@ -11458,7 +11452,7 @@
         <v>561</v>
       </c>
       <c r="C401" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D401" t="s">
         <v>461</v>
@@ -11467,7 +11461,7 @@
         <v>726</v>
       </c>
       <c r="F401" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
@@ -11487,7 +11481,7 @@
         <v>557</v>
       </c>
       <c r="F402" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
@@ -11504,10 +11498,10 @@
         <v>461</v>
       </c>
       <c r="E403" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F403" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
@@ -11527,7 +11521,7 @@
         <v>557</v>
       </c>
       <c r="F404" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
@@ -11567,7 +11561,7 @@
         <v>726</v>
       </c>
       <c r="F406" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
@@ -11584,10 +11578,10 @@
         <v>461</v>
       </c>
       <c r="E407" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F407" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
@@ -11604,10 +11598,10 @@
         <v>461</v>
       </c>
       <c r="E408" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F408" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
@@ -11624,10 +11618,10 @@
         <v>461</v>
       </c>
       <c r="E409" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F409" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
@@ -11647,7 +11641,7 @@
         <v>557</v>
       </c>
       <c r="F410" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
@@ -11692,13 +11686,13 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
+        <v>737</v>
+      </c>
+      <c r="B413" t="s">
         <v>738</v>
       </c>
-      <c r="B413" t="s">
+      <c r="C413" t="s">
         <v>739</v>
-      </c>
-      <c r="C413" t="s">
-        <v>740</v>
       </c>
       <c r="D413" t="s">
         <v>461</v>
@@ -11707,7 +11701,7 @@
         <v>726</v>
       </c>
       <c r="F413" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
@@ -11727,7 +11721,7 @@
         <v>726</v>
       </c>
       <c r="F414" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
@@ -11744,10 +11738,10 @@
         <v>461</v>
       </c>
       <c r="E415" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F415" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
@@ -11764,10 +11758,10 @@
         <v>461</v>
       </c>
       <c r="E416" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F416" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
@@ -11784,10 +11778,10 @@
         <v>461</v>
       </c>
       <c r="E417" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F417" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
@@ -11807,7 +11801,7 @@
         <v>557</v>
       </c>
       <c r="F418" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
@@ -11832,13 +11826,13 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
+        <v>734</v>
+      </c>
+      <c r="B420" t="s">
         <v>735</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
         <v>736</v>
-      </c>
-      <c r="C420" t="s">
-        <v>737</v>
       </c>
       <c r="D420" t="s">
         <v>461</v>
@@ -11847,7 +11841,7 @@
         <v>726</v>
       </c>
       <c r="F420" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
@@ -11867,7 +11861,7 @@
         <v>557</v>
       </c>
       <c r="F421" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
@@ -11907,7 +11901,7 @@
         <v>726</v>
       </c>
       <c r="F423" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
@@ -11924,10 +11918,10 @@
         <v>461</v>
       </c>
       <c r="E424" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F424" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
@@ -11944,10 +11938,10 @@
         <v>461</v>
       </c>
       <c r="E425" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F425" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
@@ -11964,10 +11958,10 @@
         <v>461</v>
       </c>
       <c r="E426" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F426" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
@@ -11984,10 +11978,10 @@
         <v>461</v>
       </c>
       <c r="E427" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F427" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
@@ -12007,7 +12001,7 @@
         <v>557</v>
       </c>
       <c r="F428" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
@@ -12032,13 +12026,13 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
+        <v>731</v>
+      </c>
+      <c r="B430" t="s">
         <v>732</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>733</v>
-      </c>
-      <c r="C430" t="s">
-        <v>734</v>
       </c>
       <c r="D430" t="s">
         <v>461</v>
@@ -12047,7 +12041,7 @@
         <v>726</v>
       </c>
       <c r="F430" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
@@ -12058,16 +12052,16 @@
         <v>173</v>
       </c>
       <c r="C431" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D431" t="s">
         <v>461</v>
       </c>
       <c r="E431" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F431" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
@@ -12078,16 +12072,16 @@
         <v>173</v>
       </c>
       <c r="C432" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D432" t="s">
         <v>461</v>
       </c>
       <c r="E432" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F432" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
@@ -12124,10 +12118,10 @@
         <v>461</v>
       </c>
       <c r="E434" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F434" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
@@ -12138,16 +12132,16 @@
         <v>174</v>
       </c>
       <c r="C435" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D435" t="s">
         <v>461</v>
       </c>
       <c r="E435" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F435" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
@@ -12172,42 +12166,42 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
+        <v>944</v>
+      </c>
+      <c r="B437" t="s">
+        <v>945</v>
+      </c>
+      <c r="C437" t="s">
         <v>946</v>
       </c>
-      <c r="B437" t="s">
-        <v>947</v>
-      </c>
-      <c r="C437" t="s">
-        <v>948</v>
-      </c>
       <c r="D437" t="s">
         <v>461</v>
       </c>
       <c r="E437" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F437" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
+        <v>932</v>
+      </c>
+      <c r="B438" t="s">
+        <v>933</v>
+      </c>
+      <c r="C438" t="s">
         <v>934</v>
       </c>
-      <c r="B438" t="s">
-        <v>935</v>
-      </c>
-      <c r="C438" t="s">
-        <v>936</v>
-      </c>
       <c r="D438" t="s">
         <v>461</v>
       </c>
       <c r="E438" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F438" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
@@ -12232,22 +12226,22 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
+        <v>926</v>
+      </c>
+      <c r="B440" t="s">
         <v>927</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>928</v>
       </c>
-      <c r="C440" t="s">
-        <v>929</v>
-      </c>
       <c r="D440" t="s">
         <v>461</v>
       </c>
       <c r="E440" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F440" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
@@ -12327,7 +12321,7 @@
         <v>557</v>
       </c>
       <c r="F444" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
@@ -12352,42 +12346,42 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
+        <v>940</v>
+      </c>
+      <c r="B446" t="s">
+        <v>941</v>
+      </c>
+      <c r="C446" t="s">
         <v>942</v>
       </c>
-      <c r="B446" t="s">
+      <c r="D446" t="s">
+        <v>461</v>
+      </c>
+      <c r="E446" t="s">
         <v>943</v>
       </c>
-      <c r="C446" t="s">
-        <v>944</v>
-      </c>
-      <c r="D446" t="s">
-        <v>461</v>
-      </c>
-      <c r="E446" t="s">
-        <v>945</v>
-      </c>
       <c r="F446" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
+        <v>913</v>
+      </c>
+      <c r="B447" t="s">
         <v>914</v>
       </c>
-      <c r="B447" t="s">
+      <c r="C447" t="s">
         <v>915</v>
       </c>
-      <c r="C447" t="s">
-        <v>916</v>
-      </c>
       <c r="D447" t="s">
         <v>461</v>
       </c>
       <c r="E447" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F447" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
@@ -12398,7 +12392,7 @@
         <v>225</v>
       </c>
       <c r="C448" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D448" t="s">
         <v>461</v>
@@ -12407,7 +12401,7 @@
         <v>726</v>
       </c>
       <c r="F448" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
@@ -12447,7 +12441,7 @@
         <v>726</v>
       </c>
       <c r="F450" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
@@ -12467,7 +12461,7 @@
         <v>557</v>
       </c>
       <c r="F451" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
@@ -12498,7 +12492,7 @@
         <v>223</v>
       </c>
       <c r="C453" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D453" t="s">
         <v>461</v>
@@ -12507,7 +12501,7 @@
         <v>726</v>
       </c>
       <c r="F453" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
@@ -12547,7 +12541,7 @@
         <v>726</v>
       </c>
       <c r="F455" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
@@ -12558,16 +12552,16 @@
         <v>222</v>
       </c>
       <c r="C456" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D456" t="s">
         <v>461</v>
       </c>
       <c r="E456" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F456" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
@@ -12587,7 +12581,7 @@
         <v>557</v>
       </c>
       <c r="F457" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
@@ -12647,27 +12641,27 @@
         <v>557</v>
       </c>
       <c r="F460" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
+        <v>916</v>
+      </c>
+      <c r="B461" t="s">
         <v>917</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
         <v>918</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461" t="s">
+        <v>461</v>
+      </c>
+      <c r="E461" t="s">
         <v>919</v>
       </c>
-      <c r="D461" t="s">
-        <v>461</v>
-      </c>
-      <c r="E461" t="s">
-        <v>920</v>
-      </c>
       <c r="F461" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
@@ -12707,7 +12701,7 @@
         <v>620</v>
       </c>
       <c r="F463" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
